--- a/Analyzer Results/RESULTS_TT_MERGED_FIT.xlsx
+++ b/Analyzer Results/RESULTS_TT_MERGED_FIT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K146"/>
+  <dimension ref="A1:N146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,17 +476,32 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>PTPA</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>PTTA</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>RMS</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>tau</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>AUC</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percentPPI</t>
         </is>
       </c>
     </row>
@@ -524,13 +539,22 @@
         <v>0.05555555555555555</v>
       </c>
       <c r="I2" t="n">
-        <v>0.04861111111111116</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="J2" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0486111111111111</v>
+      </c>
+      <c r="L2" t="n">
         <v>0.8333333333333333</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>0.08333333333334175</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.9343065693430657</v>
       </c>
     </row>
     <row r="3">
@@ -567,13 +591,22 @@
         <v>0.01388888888888889</v>
       </c>
       <c r="I3" t="n">
+        <v>0.01388888888888889</v>
+      </c>
+      <c r="J3" t="n">
         <v>0.006944444444444444</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
+        <v>0.006944444444444444</v>
+      </c>
+      <c r="L3" t="n">
         <v>0.1805555555555556</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.01388888888888889</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.1094890510948905</v>
       </c>
     </row>
     <row r="4">
@@ -610,13 +643,22 @@
         <v>0.1458333333333333</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1875</v>
+        <v>0.1527777777777778</v>
       </c>
       <c r="J4" t="n">
+        <v>0.1423611111111111</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.1736111111111111</v>
+      </c>
+      <c r="L4" t="n">
         <v>0.8819444444444444</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.2777777777777778</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.0583941605839416</v>
       </c>
     </row>
     <row r="5">
@@ -653,13 +695,22 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1805555555555556</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="J5" t="n">
+        <v>0.1319444444444444</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="L5" t="n">
         <v>0.9722222222222222</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.3055555555555555</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.01824817518248175</v>
       </c>
     </row>
     <row r="6">
@@ -696,13 +747,22 @@
         <v>0.06597222222222222</v>
       </c>
       <c r="I6" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="K6" t="n">
         <v>0.07638888888888888</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>0.8194444444444444</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.1319444444444444</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.9343065693430657</v>
       </c>
     </row>
     <row r="7">
@@ -739,13 +799,22 @@
         <v>0.1284722222222222</v>
       </c>
       <c r="I7" t="n">
+        <v>0.1319444444444444</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.1805555555555556</v>
+      </c>
+      <c r="K7" t="n">
         <v>0.1527777777777778</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>0.9097222222222222</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.25</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.6167883211678833</v>
       </c>
     </row>
     <row r="8">
@@ -782,13 +851,22 @@
         <v>0.1041666666666667</v>
       </c>
       <c r="I8" t="n">
-        <v>0.125</v>
+        <v>0.1041666666666667</v>
       </c>
       <c r="J8" t="n">
+        <v>0.1180555555555556</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="L8" t="n">
         <v>0.8541666666666674</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.1736111111111111</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.1569343065693431</v>
       </c>
     </row>
     <row r="9">
@@ -825,13 +903,22 @@
         <v>0.4965277777777778</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5763888888888888</v>
+        <v>0.5</v>
       </c>
       <c r="J9" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.5972222222222222</v>
+      </c>
+      <c r="L9" t="n">
         <v>0.7013888888888888</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.5416666666666666</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.3284671532846715</v>
       </c>
     </row>
     <row r="10">
@@ -868,13 +955,22 @@
         <v>0.4305555555555555</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5138888888888888</v>
+        <v>0.4375</v>
       </c>
       <c r="J10" t="n">
+        <v>0.4097222222222222</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="L10" t="n">
         <v>0.4444444444444444</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.4930555555555555</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.6277372262773723</v>
       </c>
     </row>
     <row r="11">
@@ -911,13 +1007,22 @@
         <v>0.7361111111111115</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7013888888888888</v>
+        <v>0.7361111111111115</v>
       </c>
       <c r="J11" t="n">
+        <v>0.7222222222222228</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.7152777777777778</v>
+      </c>
+      <c r="L11" t="n">
         <v>0.2638888888888889</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.5694444444444444</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.7153284671532847</v>
       </c>
     </row>
     <row r="12">
@@ -954,13 +1059,22 @@
         <v>0.5138888888888888</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5833333333333335</v>
+        <v>0.5138888888888888</v>
       </c>
       <c r="J12" t="n">
+        <v>0.4861111111111112</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.611111111111111</v>
+      </c>
+      <c r="L12" t="n">
         <v>0.4722222222222222</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.5625</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.7335766423357664</v>
       </c>
     </row>
     <row r="13">
@@ -997,13 +1111,22 @@
         <v>0.9444444444444444</v>
       </c>
       <c r="I13" t="n">
+        <v>0.8819444444444444</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.9166666666666672</v>
+      </c>
+      <c r="K13" t="n">
         <v>0.986111111111111</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>0.5972222222222222</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.9652777777777777</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.5218978102189782</v>
       </c>
     </row>
     <row r="14">
@@ -1040,13 +1163,22 @@
         <v>0.7291666666666667</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7569444444444444</v>
+        <v>0.7291666666666669</v>
       </c>
       <c r="J14" t="n">
+        <v>0.6527777777777772</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="L14" t="n">
         <v>0.4791666666666666</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.7430555555555555</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.5547445255474452</v>
       </c>
     </row>
     <row r="15">
@@ -1083,13 +1215,22 @@
         <v>0.5763888888888888</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6180555555555555</v>
+        <v>0.5833333333333333</v>
       </c>
       <c r="J15" t="n">
+        <v>0.5972222222222222</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.6319444444444444</v>
+      </c>
+      <c r="L15" t="n">
         <v>0.3958333333333333</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.6041666666666666</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.7481751824817517</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1267,22 @@
         <v>0.767361111111111</v>
       </c>
       <c r="I16" t="n">
-        <v>0.7430555555555555</v>
+        <v>0.7708333333333924</v>
       </c>
       <c r="J16" t="n">
+        <v>0.7951388888888888</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.7430555555555588</v>
+      </c>
+      <c r="L16" t="n">
         <v>0.5902777777777778</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.6944444444444444</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.7335766423357664</v>
       </c>
     </row>
     <row r="17">
@@ -1169,13 +1319,22 @@
         <v>0.5277777777777777</v>
       </c>
       <c r="I17" t="n">
-        <v>0.5486111111111112</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="J17" t="n">
+        <v>0.6597222222222223</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="L17" t="n">
         <v>0.2361111111111111</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.5902777777777778</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.135036496350365</v>
       </c>
     </row>
     <row r="18">
@@ -1212,13 +1371,22 @@
         <v>0.25</v>
       </c>
       <c r="I18" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J18" t="n">
         <v>0.2013888888888889</v>
       </c>
-      <c r="J18" t="n">
+      <c r="K18" t="n">
+        <v>0.2083333333333333</v>
+      </c>
+      <c r="L18" t="n">
         <v>0.5138888888888888</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.2291666666666667</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.9854014598540146</v>
       </c>
     </row>
     <row r="19">
@@ -1258,11 +1426,20 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.9652777777777777</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
+      <c r="L19" t="n">
+        <v>0.9652777777777777</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.5875912408759123</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1298,13 +1475,22 @@
         <v>0.340277777777778</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3402777777777778</v>
+        <v>0.3541666666666666</v>
       </c>
       <c r="J20" t="n">
+        <v>0.3611111111111113</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.3472222222222222</v>
+      </c>
+      <c r="L20" t="n">
         <v>0.2291666666666667</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.4027777777777777</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.2335766423357664</v>
       </c>
     </row>
     <row r="21">
@@ -1341,13 +1527,22 @@
         <v>0.3090277777777778</v>
       </c>
       <c r="I21" t="n">
+        <v>0.3194444444444444</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="K21" t="n">
         <v>0.3333333333333334</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>0.5069444444444444</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.3819444444444444</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.4708029197080292</v>
       </c>
     </row>
     <row r="22">
@@ -1384,13 +1579,22 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="I22" t="n">
-        <v>0.6041666666666666</v>
+        <v>0.5208333333333333</v>
       </c>
       <c r="J22" t="n">
+        <v>0.6944444444444444</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="L22" t="n">
         <v>0.2430555555555556</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.4097222222222222</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.6642335766423357</v>
       </c>
     </row>
     <row r="23">
@@ -1427,13 +1631,22 @@
         <v>0.2048611111111111</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2152777777777778</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="J23" t="n">
+        <v>0.1597222222222222</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.2291666666666667</v>
+      </c>
+      <c r="L23" t="n">
         <v>0.5833333333333333</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.3194444444444444</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.9525547445255473</v>
       </c>
     </row>
     <row r="24">
@@ -1470,13 +1683,22 @@
         <v>0.7083333333333333</v>
       </c>
       <c r="I24" t="n">
-        <v>0.6944444444444444</v>
+        <v>0.6458333333333333</v>
       </c>
       <c r="J24" t="n">
+        <v>0.7152777777777778</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.7083333333333333</v>
+      </c>
+      <c r="L24" t="n">
         <v>0.2083333333333333</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.5763888888888888</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.4197080291970803</v>
       </c>
     </row>
     <row r="25">
@@ -1513,14 +1735,21 @@
         <v>0.2986111111111111</v>
       </c>
       <c r="I25" t="n">
-        <v>0.3819444444444444</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="J25" t="n">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.3645833333333333</v>
+      </c>
+      <c r="L25" t="n">
         <v>0.8888888888888888</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.4652777777777777</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1556,13 +1785,22 @@
         <v>0.1944444444444444</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2916666666666666</v>
+        <v>0.1944444444444444</v>
       </c>
       <c r="J26" t="n">
+        <v>0.2361111111111111</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.2916666666666671</v>
+      </c>
+      <c r="L26" t="n">
         <v>0.9375</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.3888888888888888</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.2627737226277372</v>
       </c>
     </row>
     <row r="27">
@@ -1602,10 +1840,19 @@
         <v>0.04166666666666668</v>
       </c>
       <c r="J27" t="n">
+        <v>0.0486111111111111</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.04166666666666669</v>
+      </c>
+      <c r="L27" t="n">
         <v>0.4166666666666666</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.05555555555555555</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1642,13 +1889,22 @@
         <v>0.2638888888888889</v>
       </c>
       <c r="I28" t="n">
-        <v>0.3680555555555557</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="J28" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.3541666666666666</v>
+      </c>
+      <c r="L28" t="n">
         <v>0.8125</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.4722222222222222</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.2153284671532847</v>
       </c>
     </row>
     <row r="29">
@@ -1685,13 +1941,22 @@
         <v>0.0798611111111111</v>
       </c>
       <c r="I29" t="n">
+        <v>0.0798611111111111</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.09027777777777778</v>
+      </c>
+      <c r="K29" t="n">
         <v>0.05555555555555555</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>0.4513888888888888</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.07638888888888888</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.8175182481751825</v>
       </c>
     </row>
     <row r="30">
@@ -1728,13 +1993,22 @@
         <v>0.2743055555555556</v>
       </c>
       <c r="I30" t="n">
-        <v>0.2638888888888889</v>
+        <v>0.2708333333333333</v>
       </c>
       <c r="J30" t="n">
+        <v>0.2430555555555556</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="L30" t="n">
         <v>0.6041666666666666</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.3125</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.9124087591240876</v>
       </c>
     </row>
     <row r="31">
@@ -1771,13 +2045,22 @@
         <v>0.1284722222222222</v>
       </c>
       <c r="I31" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="K31" t="n">
         <v>0.1041666666666667</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>0.6388888888888888</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.1597222222222222</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.7883211678832116</v>
       </c>
     </row>
     <row r="32">
@@ -1814,13 +2097,22 @@
         <v>0.0486111111111111</v>
       </c>
       <c r="I32" t="n">
+        <v>0.0486111111111111</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.04166666666666671</v>
+      </c>
+      <c r="K32" t="n">
         <v>0.0625</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>0.6597222222222223</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.09027777777777778</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.8978102189781022</v>
       </c>
     </row>
     <row r="33">
@@ -1857,13 +2149,22 @@
         <v>0.09027777777777778</v>
       </c>
       <c r="I33" t="n">
+        <v>0.09027777777777778</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.09722222222222228</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.3680555555555555</v>
+      </c>
+      <c r="M33" t="n">
         <v>0.06944444444444445</v>
       </c>
-      <c r="J33" t="n">
-        <v>0.3680555555555555</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.06944444444444445</v>
+      <c r="N33" t="n">
+        <v>0.1971999521359339</v>
       </c>
     </row>
     <row r="34">
@@ -1903,10 +2204,19 @@
         <v>0.03472222222222222</v>
       </c>
       <c r="J34" t="n">
+        <v>0.03472222222222222</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.03472222222222222</v>
+      </c>
+      <c r="L34" t="n">
         <v>0.4027777777777777</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.04166666666666673</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1943,13 +2253,22 @@
         <v>0.1180555555555556</v>
       </c>
       <c r="I35" t="n">
+        <v>0.1180555555555556</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.1527777777777778</v>
+      </c>
+      <c r="K35" t="n">
         <v>0.1597222222222222</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>0.6319444444444444</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.1944444444444444</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.1204379562043796</v>
       </c>
     </row>
     <row r="36">
@@ -1989,10 +2308,19 @@
         <v>0.02777777777777778</v>
       </c>
       <c r="J36" t="n">
+        <v>0.02777777777777778</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.02777777777777778</v>
+      </c>
+      <c r="L36" t="n">
         <v>0.6736111111111113</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.03472222222222222</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.3978102189781022</v>
       </c>
     </row>
     <row r="37">
@@ -2029,13 +2357,22 @@
         <v>0.09722222222222221</v>
       </c>
       <c r="I37" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.09722222222222221</v>
       </c>
       <c r="J37" t="n">
+        <v>0.07638888888888888</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.09027777777777778</v>
+      </c>
+      <c r="L37" t="n">
         <v>0.6805555555555555</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.1111111111111111</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.3759124087591241</v>
       </c>
     </row>
     <row r="38">
@@ -2072,13 +2409,22 @@
         <v>0.1875</v>
       </c>
       <c r="I38" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.1423611111111111</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.1319444444444444</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="M38" t="n">
         <v>0.1180555555555556</v>
       </c>
-      <c r="J38" t="n">
-        <v>0.1875</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.1180555555555556</v>
+      <c r="N38" t="n">
+        <v>0.7956204379562044</v>
       </c>
     </row>
     <row r="39">
@@ -2115,13 +2461,22 @@
         <v>0.15625</v>
       </c>
       <c r="I39" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.1597222222222222</v>
       </c>
       <c r="J39" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.1180555555555556</v>
+      </c>
+      <c r="L39" t="n">
         <v>0.6944444444444444</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.1527777777777778</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.3138686131386861</v>
       </c>
     </row>
     <row r="40">
@@ -2158,13 +2513,22 @@
         <v>0.0798611111111111</v>
       </c>
       <c r="I40" t="n">
-        <v>0.09027777777777778</v>
+        <v>0.0798611111111111</v>
       </c>
       <c r="J40" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.09722222222222221</v>
+      </c>
+      <c r="L40" t="n">
         <v>0.5625</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.1041666666666667</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.3613138686131387</v>
       </c>
     </row>
     <row r="41">
@@ -2201,13 +2565,22 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="I41" t="n">
-        <v>0.1319444444444444</v>
+        <v>0.1666666666666668</v>
       </c>
       <c r="J41" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="L41" t="n">
         <v>0.25</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.125</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.4927007299270073</v>
       </c>
     </row>
     <row r="42">
@@ -2244,14 +2617,21 @@
         <v>0.3333333333333334</v>
       </c>
       <c r="I42" t="n">
-        <v>0.4097222222222222</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="J42" t="n">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.3958333333333335</v>
+      </c>
+      <c r="L42" t="n">
         <v>0.8958333333333333</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.4791666666666666</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2287,13 +2667,22 @@
         <v>0.8090277777777777</v>
       </c>
       <c r="I43" t="n">
-        <v>0.9375</v>
+        <v>0.8194444444444444</v>
       </c>
       <c r="J43" t="n">
+        <v>0.8680555555555555</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.923611111111111</v>
+      </c>
+      <c r="L43" t="n">
         <v>0.9513888888888888</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.9791666666666672</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.04014598540145985</v>
       </c>
     </row>
     <row r="44">
@@ -2330,13 +2719,22 @@
         <v>0.7916666666666672</v>
       </c>
       <c r="I44" t="n">
+        <v>0.7986111111111115</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.8263888888888888</v>
+      </c>
+      <c r="K44" t="n">
         <v>0.7777777777777778</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>0.2152777777777778</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.8611111111111117</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.08394160583941607</v>
       </c>
     </row>
     <row r="45">
@@ -2373,13 +2771,22 @@
         <v>0.8090277777777777</v>
       </c>
       <c r="I45" t="n">
-        <v>0.8958333333333333</v>
+        <v>0.8125</v>
       </c>
       <c r="J45" t="n">
+        <v>0.8194444444444444</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="L45" t="n">
         <v>0.9444444444444444</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.9444444444444444</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.2445255474452555</v>
       </c>
     </row>
     <row r="46">
@@ -2416,13 +2823,22 @@
         <v>0.4861111111111111</v>
       </c>
       <c r="I46" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="J46" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.548611111111111</v>
+      </c>
+      <c r="L46" t="n">
         <v>0.375</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.611111111111111</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.8613138686131386</v>
       </c>
     </row>
     <row r="47">
@@ -2459,13 +2875,22 @@
         <v>0.2256944444444444</v>
       </c>
       <c r="I47" t="n">
-        <v>0.3541666666666666</v>
+        <v>0.2152777777777778</v>
       </c>
       <c r="J47" t="n">
+        <v>0.2847222222222222</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="L47" t="n">
         <v>0.923611111111111</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.5138888888888888</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.4817518248175182</v>
       </c>
     </row>
     <row r="48">
@@ -2502,14 +2927,23 @@
         <v>0.02083333333333338</v>
       </c>
       <c r="I48" t="n">
-        <v>0.01388888888888889</v>
+        <v>0.02083333333333337</v>
       </c>
       <c r="J48" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="K48" t="n">
         <v>0.02083333333333333</v>
       </c>
+      <c r="L48" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.02083333333333333</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.8905109489051095</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2545,14 +2979,21 @@
         <v>0.4583333333333335</v>
       </c>
       <c r="I49" t="n">
-        <v>0.5972222222222222</v>
+        <v>0.3958333333333334</v>
       </c>
       <c r="J49" t="n">
+        <v>0.4791666666666666</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.6180555555555555</v>
+      </c>
+      <c r="L49" t="n">
         <v>0.3125</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.5</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2588,13 +3029,22 @@
         <v>0.3958333333333337</v>
       </c>
       <c r="I50" t="n">
-        <v>0.5347222222222222</v>
+        <v>0.4027777777777778</v>
       </c>
       <c r="J50" t="n">
+        <v>0.3819444444444444</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="L50" t="n">
         <v>0.6875</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.5972222222222222</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.0583941605839416</v>
       </c>
     </row>
     <row r="51">
@@ -2631,13 +3081,22 @@
         <v>0.3611111111111111</v>
       </c>
       <c r="I51" t="n">
-        <v>0.4375</v>
+        <v>0.3680555555555555</v>
       </c>
       <c r="J51" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="L51" t="n">
         <v>0.5694444444444444</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.5069444444444444</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.01824817518248175</v>
       </c>
     </row>
     <row r="52">
@@ -2674,13 +3133,22 @@
         <v>0.06597222222222222</v>
       </c>
       <c r="I52" t="n">
-        <v>0.09722222222222221</v>
+        <v>0.0625</v>
       </c>
       <c r="J52" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.06944444444444445</v>
+      </c>
+      <c r="L52" t="n">
         <v>0.8055555555555555</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.2013888888888889</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.6167883211678833</v>
       </c>
     </row>
     <row r="53">
@@ -2717,13 +3185,22 @@
         <v>0.006944444444444444</v>
       </c>
       <c r="I53" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.006944444444444444</v>
       </c>
       <c r="J53" t="n">
+        <v>0.01388888888888889</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.01388888888888889</v>
+      </c>
+      <c r="L53" t="n">
         <v>1</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.0625</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.8759124087591242</v>
       </c>
     </row>
     <row r="54">
@@ -2760,13 +3237,22 @@
         <v>0.15625</v>
       </c>
       <c r="I54" t="n">
-        <v>0.1388888888888889</v>
+        <v>0.1527777777777778</v>
       </c>
       <c r="J54" t="n">
+        <v>0.1736111111111111</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="L54" t="n">
         <v>0.6180555555555555</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.2708333333333333</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.9635036496350364</v>
       </c>
     </row>
     <row r="55">
@@ -2803,13 +3289,22 @@
         <v>0.2430555555555556</v>
       </c>
       <c r="I55" t="n">
-        <v>0.25</v>
+        <v>0.2430555555555556</v>
       </c>
       <c r="J55" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.2430555555555556</v>
+      </c>
+      <c r="L55" t="n">
         <v>0.5763888888888888</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.3541666666666666</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.9051094890510949</v>
       </c>
     </row>
     <row r="56">
@@ -2846,13 +3341,22 @@
         <v>0.954861111111111</v>
       </c>
       <c r="I56" t="n">
+        <v>0.9652777777777777</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="K56" t="n">
         <v>0.9444444444444444</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>0.1666666666666667</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.8819444444444444</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.3284671532846715</v>
       </c>
     </row>
     <row r="57">
@@ -2889,13 +3393,22 @@
         <v>0.8854166666666666</v>
       </c>
       <c r="I57" t="n">
-        <v>0.8333333333333381</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="J57" t="n">
+        <v>0.8402777777777778</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.8611111111111113</v>
+      </c>
+      <c r="L57" t="n">
         <v>0.1527777777777778</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.7569444444444444</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.2773722627737226</v>
       </c>
     </row>
     <row r="58">
@@ -2932,13 +3445,22 @@
         <v>0.9652777777777777</v>
       </c>
       <c r="I58" t="n">
-        <v>0.875</v>
+        <v>0.9722222222222222</v>
       </c>
       <c r="J58" t="n">
+        <v>0.972222222222223</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.9027777777777777</v>
+      </c>
+      <c r="L58" t="n">
         <v>0.1180555555555556</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0.7152777777777778</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.2773722627737226</v>
       </c>
     </row>
     <row r="59">
@@ -2975,13 +3497,22 @@
         <v>0.9027777777777777</v>
       </c>
       <c r="I59" t="n">
-        <v>0.9027777777777777</v>
+        <v>0.9097222222222229</v>
       </c>
       <c r="J59" t="n">
+        <v>0.8958333333333333</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="L59" t="n">
         <v>0.2847222222222222</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.8472222222222232</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.4343065693430657</v>
       </c>
     </row>
     <row r="60">
@@ -3018,13 +3549,22 @@
         <v>0.9270833333333333</v>
       </c>
       <c r="I60" t="n">
-        <v>0.9513888888888888</v>
+        <v>0.9375</v>
       </c>
       <c r="J60" t="n">
+        <v>0.923611111111111</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.9583333333333333</v>
+      </c>
+      <c r="L60" t="n">
         <v>0.1388888888888889</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.7083333333333333</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.656934306569343</v>
       </c>
     </row>
     <row r="61">
@@ -3061,13 +3601,22 @@
         <v>0.9097222222222222</v>
       </c>
       <c r="I61" t="n">
-        <v>0.9166666666666667</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="J61" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.9305555555555555</v>
+      </c>
+      <c r="L61" t="n">
         <v>0.1736111111111111</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>0.8333333333333333</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.5547445255474452</v>
       </c>
     </row>
     <row r="62">
@@ -3104,13 +3653,22 @@
         <v>0.8958333333333333</v>
       </c>
       <c r="I62" t="n">
-        <v>0.9305555555555555</v>
+        <v>0.9027777777777777</v>
       </c>
       <c r="J62" t="n">
+        <v>0.8819444444444444</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="L62" t="n">
         <v>0.2569444444444444</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>0.9027777777777777</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.7481751824817517</v>
       </c>
     </row>
     <row r="63">
@@ -3147,13 +3705,22 @@
         <v>0.4722222222222222</v>
       </c>
       <c r="I63" t="n">
-        <v>0.4305555555555556</v>
+        <v>0.4791666666666666</v>
       </c>
       <c r="J63" t="n">
+        <v>0.5347222222222222</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.4513888888888888</v>
+      </c>
+      <c r="L63" t="n">
         <v>0.1597222222222222</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>0.2152777777777778</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.135036496350365</v>
       </c>
     </row>
     <row r="64">
@@ -3190,13 +3757,22 @@
         <v>0.3680555555555555</v>
       </c>
       <c r="I64" t="n">
-        <v>0.1666666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="J64" t="n">
+        <v>0.3402777777777777</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="L64" t="n">
         <v>0.05555555555555555</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>0.0486111111111111</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.9854014598540146</v>
       </c>
     </row>
     <row r="65">
@@ -3233,13 +3809,22 @@
         <v>0.4722222222222222</v>
       </c>
       <c r="I65" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.4652777777777777</v>
       </c>
       <c r="J65" t="n">
+        <v>0.5034722222222222</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.4652777777777777</v>
+      </c>
+      <c r="L65" t="n">
         <v>0.1111111111111111</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>0.340277777777811</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.1021897810218977</v>
       </c>
     </row>
     <row r="66">
@@ -3276,13 +3861,22 @@
         <v>0.625</v>
       </c>
       <c r="I66" t="n">
-        <v>0.4652777777777777</v>
+        <v>0.618055555555556</v>
       </c>
       <c r="J66" t="n">
+        <v>0.5138888888888888</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.5069444444444444</v>
+      </c>
+      <c r="L66" t="n">
         <v>0.1458333333333334</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>0.3472222222222222</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.6058394160583951</v>
       </c>
     </row>
     <row r="67">
@@ -3319,13 +3913,22 @@
         <v>0.4027777777777777</v>
       </c>
       <c r="I67" t="n">
-        <v>0.2291666666666668</v>
+        <v>0.4097222222222222</v>
       </c>
       <c r="J67" t="n">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.2708333333333333</v>
+      </c>
+      <c r="L67" t="n">
         <v>0.0625</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>0.09722222222222221</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.7226277372262774</v>
       </c>
     </row>
     <row r="68">
@@ -3362,13 +3965,22 @@
         <v>0.625</v>
       </c>
       <c r="I68" t="n">
-        <v>0.3958333333333335</v>
+        <v>0.625</v>
       </c>
       <c r="J68" t="n">
+        <v>0.5034722222222222</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.4166666666666666</v>
+      </c>
+      <c r="L68" t="n">
         <v>0.1041666666666667</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>0.2569444444444444</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.4708029197080292</v>
       </c>
     </row>
     <row r="69">
@@ -3405,13 +4017,22 @@
         <v>0.5416666666666666</v>
       </c>
       <c r="I69" t="n">
-        <v>0.4027777777777777</v>
+        <v>0.548611111111111</v>
       </c>
       <c r="J69" t="n">
+        <v>0.6458333333333333</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.4305555555555555</v>
+      </c>
+      <c r="L69" t="n">
         <v>0.08333333333333333</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>0.2638888888888889</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.7043795620437956</v>
       </c>
     </row>
     <row r="70">
@@ -3448,13 +4069,22 @@
         <v>0.5069444444444444</v>
       </c>
       <c r="I70" t="n">
-        <v>0.3263888888888889</v>
+        <v>0.5069444444444444</v>
       </c>
       <c r="J70" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.340277777777778</v>
+      </c>
+      <c r="L70" t="n">
         <v>0.09722222222222221</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>0.1388888888888889</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.5364963503649636</v>
       </c>
     </row>
     <row r="71">
@@ -3491,13 +4121,22 @@
         <v>0.6944444444444444</v>
       </c>
       <c r="I71" t="n">
-        <v>0.7847222222222223</v>
+        <v>0.7013888888888888</v>
       </c>
       <c r="J71" t="n">
+        <v>0.5208333333333333</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.7847222222222222</v>
+      </c>
+      <c r="L71" t="n">
         <v>0.7986111111111115</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>0.8680555555555555</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.3065693430656934</v>
       </c>
     </row>
     <row r="72">
@@ -3534,13 +4173,22 @@
         <v>0.6041666666666666</v>
       </c>
       <c r="I72" t="n">
-        <v>0.6597222222222247</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="J72" t="n">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.6666666666666671</v>
+      </c>
+      <c r="L72" t="n">
         <v>0.2986111111111111</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>0.6597222222222224</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.5766423357664233</v>
       </c>
     </row>
     <row r="73">
@@ -3577,13 +4225,22 @@
         <v>0.6875</v>
       </c>
       <c r="I73" t="n">
+        <v>0.6944444444444444</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="K73" t="n">
         <v>0.736111111111111</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>0.5555555555555556</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>0.8055555555555555</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.8175182481751825</v>
       </c>
     </row>
     <row r="74">
@@ -3620,13 +4277,22 @@
         <v>0.2847222222222222</v>
       </c>
       <c r="I74" t="n">
-        <v>0.1944444444444444</v>
+        <v>0.2847222222222222</v>
       </c>
       <c r="J74" t="n">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.2013888888888889</v>
+      </c>
+      <c r="L74" t="n">
         <v>0.2708333333333333</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>0.2430555555555559</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.8394160583941606</v>
       </c>
     </row>
     <row r="75">
@@ -3666,10 +4332,19 @@
         <v>0.7638888888888888</v>
       </c>
       <c r="J75" t="n">
+        <v>0.7638888888888888</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.7638888888888888</v>
+      </c>
+      <c r="L75" t="n">
         <v>0.5208333333333335</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>0.7916666666666666</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.7883211678832116</v>
       </c>
     </row>
     <row r="76">
@@ -3706,13 +4381,22 @@
         <v>0.6527777777777777</v>
       </c>
       <c r="I76" t="n">
-        <v>0.673611111111111</v>
+        <v>0.6701388888888888</v>
       </c>
       <c r="J76" t="n">
+        <v>0.6736111111111114</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.6736111111111114</v>
+      </c>
+      <c r="L76" t="n">
         <v>0.4305555555555555</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>0.6527777777777777</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.8321167883211679</v>
       </c>
     </row>
     <row r="77">
@@ -3749,13 +4433,22 @@
         <v>0.3506944444444444</v>
       </c>
       <c r="I77" t="n">
-        <v>0.4930555555555555</v>
+        <v>0.3472222222222222</v>
       </c>
       <c r="J77" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="L77" t="n">
         <v>0.6111111111111116</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>0.5347222222222222</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.6386861313868613</v>
       </c>
     </row>
     <row r="78">
@@ -3792,13 +4485,22 @@
         <v>0.6354166666666666</v>
       </c>
       <c r="I78" t="n">
+        <v>0.6319444444444444</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.736111111111111</v>
+      </c>
+      <c r="K78" t="n">
         <v>0.6527777777777777</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>0.4930555555555555</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>0.6388888888888888</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.3503649635036497</v>
       </c>
     </row>
     <row r="79">
@@ -3835,13 +4537,22 @@
         <v>0.6527777777777777</v>
       </c>
       <c r="I79" t="n">
-        <v>0.729166666666667</v>
+        <v>0.65625</v>
       </c>
       <c r="J79" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.729166666666669</v>
+      </c>
+      <c r="L79" t="n">
         <v>0.4652777777777777</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>0.75</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.6788321167883211</v>
       </c>
     </row>
     <row r="80">
@@ -3878,14 +4589,21 @@
         <v>0.5763888888888888</v>
       </c>
       <c r="I80" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5729166666666666</v>
       </c>
       <c r="J80" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.6458333333333336</v>
+      </c>
+      <c r="L80" t="n">
         <v>0.7152777777777767</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>0.7638888888888888</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3921,13 +4639,22 @@
         <v>0.3194444444444444</v>
       </c>
       <c r="I81" t="n">
+        <v>0.3055555555555555</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="K81" t="n">
         <v>0.3125</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>0.5</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>0.375</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.1971999521359339</v>
       </c>
     </row>
     <row r="82">
@@ -3964,13 +4691,22 @@
         <v>0.2569444444444444</v>
       </c>
       <c r="I82" t="n">
-        <v>0.2708333333333333</v>
+        <v>0.2569444444444444</v>
       </c>
       <c r="J82" t="n">
+        <v>0.2569444444444444</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.2847222222222222</v>
+      </c>
+      <c r="L82" t="n">
         <v>0.7708333333333357</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>0.4166666666666666</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.9708029197080291</v>
       </c>
     </row>
     <row r="83">
@@ -4007,13 +4743,22 @@
         <v>0.5277777777777777</v>
       </c>
       <c r="I83" t="n">
-        <v>0.5902777777777778</v>
+        <v>0.53125</v>
       </c>
       <c r="J83" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.5868055555555556</v>
+      </c>
+      <c r="L83" t="n">
         <v>0.3541666666666716</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>0.6458333333333333</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.1204379562043796</v>
       </c>
     </row>
     <row r="84">
@@ -4050,13 +4795,22 @@
         <v>0.6354166666666666</v>
       </c>
       <c r="I84" t="n">
-        <v>0.6875</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="J84" t="n">
+        <v>0.5833333333333333</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.6805555555555555</v>
+      </c>
+      <c r="L84" t="n">
         <v>0.6527777777777776</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>0.7291666666666667</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.3978102189781022</v>
       </c>
     </row>
     <row r="85">
@@ -4093,13 +4847,22 @@
         <v>0.6527777777777777</v>
       </c>
       <c r="I85" t="n">
-        <v>0.2847222222222222</v>
+        <v>0.65625</v>
       </c>
       <c r="J85" t="n">
+        <v>0.6319444444444444</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.305555555555556</v>
+      </c>
+      <c r="L85" t="n">
         <v>0.02777777777777778</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>0.006944444444444444</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.3613138686131387</v>
       </c>
     </row>
     <row r="86">
@@ -4136,13 +4899,22 @@
         <v>0.5277777777777777</v>
       </c>
       <c r="I86" t="n">
-        <v>0.6388888888888888</v>
+        <v>0.53125</v>
       </c>
       <c r="J86" t="n">
+        <v>0.5902777777777778</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+      <c r="L86" t="n">
         <v>0.7847222222222222</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>0.7222222222222222</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.7664233576642335</v>
       </c>
     </row>
     <row r="87">
@@ -4179,13 +4951,22 @@
         <v>0.6875</v>
       </c>
       <c r="I87" t="n">
-        <v>0.6805555555555555</v>
+        <v>0.6875</v>
       </c>
       <c r="J87" t="n">
+        <v>0.7013888888888888</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="L87" t="n">
         <v>0.3819444444444444</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>0.6666666666666666</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.1824817518248175</v>
       </c>
     </row>
     <row r="88">
@@ -4222,13 +5003,22 @@
         <v>0.4097222222222222</v>
       </c>
       <c r="I88" t="n">
-        <v>0.5</v>
+        <v>0.4166666666666669</v>
       </c>
       <c r="J88" t="n">
+        <v>0.3958333333333339</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.4791666666666666</v>
+      </c>
+      <c r="L88" t="n">
         <v>0.7430555555555555</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>0.548611111111112</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.4927007299270073</v>
       </c>
     </row>
     <row r="89">
@@ -4265,13 +5055,22 @@
         <v>0.8611111111111113</v>
       </c>
       <c r="I89" t="n">
-        <v>0.8402777777777777</v>
+        <v>0.875</v>
       </c>
       <c r="J89" t="n">
+        <v>0.7951388888888888</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="L89" t="n">
         <v>0.736111111111111</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>0.923611111111111</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.4525547445255474</v>
       </c>
     </row>
     <row r="90">
@@ -4308,13 +5107,22 @@
         <v>0.9791666666666667</v>
       </c>
       <c r="I90" t="n">
-        <v>0.9930555555555555</v>
+        <v>0.9513888888888888</v>
       </c>
       <c r="J90" t="n">
+        <v>0.986111111111111</v>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="n">
         <v>0.1944444444444444</v>
       </c>
-      <c r="K90" t="n">
+      <c r="M90" t="n">
         <v>0.9722222222222222</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.08394160583941607</v>
       </c>
     </row>
     <row r="91">
@@ -4351,13 +5159,22 @@
         <v>0.9930555555555555</v>
       </c>
       <c r="I91" t="n">
-        <v>0.9791666666666691</v>
+        <v>0.9930555555555555</v>
       </c>
       <c r="J91" t="n">
+        <v>0.979166666666667</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.9791666666666669</v>
+      </c>
+      <c r="L91" t="n">
         <v>0.4097222222222222</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
         <v>0.986111111111111</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.2445255474452555</v>
       </c>
     </row>
     <row r="92">
@@ -4394,13 +5211,22 @@
         <v>1</v>
       </c>
       <c r="I92" t="n">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
       <c r="J92" t="n">
+        <v>1</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.8958333333333333</v>
+      </c>
+      <c r="L92" t="n">
         <v>0.07638888888888888</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>0.7708333333333333</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0.6934306569343066</v>
       </c>
     </row>
     <row r="93">
@@ -4437,13 +5263,22 @@
         <v>0.986111111111111</v>
       </c>
       <c r="I93" t="n">
-        <v>0.8125</v>
+        <v>0.986111111111111</v>
       </c>
       <c r="J93" t="n">
+        <v>0.9930555555555555</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.8333333333333333</v>
+      </c>
+      <c r="L93" t="n">
         <v>0.03472222222222222</v>
       </c>
-      <c r="K93" t="n">
+      <c r="M93" t="n">
         <v>0.4861111111111112</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.6496350364963503</v>
       </c>
     </row>
     <row r="94">
@@ -4480,13 +5315,22 @@
         <v>0.9722222222222222</v>
       </c>
       <c r="I94" t="n">
+        <v>0.9791666666666666</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.9583333333333333</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.9930555555555555</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0.8402777777777783</v>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
-      <c r="J94" t="n">
-        <v>0.8402777777777783</v>
-      </c>
-      <c r="K94" t="n">
-        <v>1</v>
+      <c r="N94" t="n">
+        <v>0.8613138686131386</v>
       </c>
     </row>
     <row r="95">
@@ -4526,10 +5370,19 @@
         <v>0.9583333333333333</v>
       </c>
       <c r="J95" t="n">
+        <v>0.9652777777777777</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.9513888888888888</v>
+      </c>
+      <c r="L95" t="n">
         <v>0.625</v>
       </c>
-      <c r="K95" t="n">
+      <c r="M95" t="n">
         <v>0.9583333333333333</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0.8905109489051095</v>
       </c>
     </row>
     <row r="96">
@@ -4566,13 +5419,22 @@
         <v>0.9375</v>
       </c>
       <c r="I96" t="n">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="K96" t="n">
         <v>0.9652777777777777</v>
       </c>
-      <c r="J96" t="n">
+      <c r="L96" t="n">
         <v>0.8472222222222222</v>
       </c>
-      <c r="K96" t="n">
+      <c r="M96" t="n">
         <v>0.9930555555555555</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.510948905109489</v>
       </c>
     </row>
     <row r="97">
@@ -4609,14 +5471,21 @@
         <v>0.2256944444444444</v>
       </c>
       <c r="I97" t="n">
-        <v>0.2986111111111111</v>
+        <v>0.2291666666666667</v>
       </c>
       <c r="J97" t="n">
+        <v>0.2777777777777778</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="L97" t="n">
         <v>0.986111111111111</v>
       </c>
-      <c r="K97" t="n">
+      <c r="M97" t="n">
         <v>0.4583333333333334</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4652,13 +5521,22 @@
         <v>0.2361111111111111</v>
       </c>
       <c r="I98" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.2361111111111111</v>
       </c>
       <c r="J98" t="n">
+        <v>0.2708333333333333</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.2569444444444444</v>
+      </c>
+      <c r="L98" t="n">
         <v>0.861111111111111</v>
       </c>
-      <c r="K98" t="n">
+      <c r="M98" t="n">
         <v>0.4375</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0.145985401459854</v>
       </c>
     </row>
     <row r="99">
@@ -4695,13 +5573,22 @@
         <v>0.1736111111111111</v>
       </c>
       <c r="I99" t="n">
-        <v>0.2569444444444444</v>
+        <v>0.1736111111111111</v>
       </c>
       <c r="J99" t="n">
+        <v>0.1944444444444444</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.2152777777777778</v>
+      </c>
+      <c r="L99" t="n">
         <v>0.9930555555555555</v>
       </c>
-      <c r="K99" t="n">
+      <c r="M99" t="n">
         <v>0.4305555555555561</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.9343065693430657</v>
       </c>
     </row>
     <row r="100">
@@ -4738,13 +5625,22 @@
         <v>0.3819444444444444</v>
       </c>
       <c r="I100" t="n">
-        <v>0.5694444444444444</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="J100" t="n">
+        <v>0.3194444444444444</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="L100" t="n">
         <v>0.7638888888888888</v>
       </c>
-      <c r="K100" t="n">
+      <c r="M100" t="n">
         <v>0.625</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.0583941605839416</v>
       </c>
     </row>
     <row r="101">
@@ -4781,13 +5677,22 @@
         <v>0.3090277777777778</v>
       </c>
       <c r="I101" t="n">
-        <v>0.5069444444444444</v>
+        <v>0.3125</v>
       </c>
       <c r="J101" t="n">
+        <v>0.3680555555555556</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.4583333333333383</v>
+      </c>
+      <c r="L101" t="n">
         <v>0.9791666666666675</v>
       </c>
-      <c r="K101" t="n">
+      <c r="M101" t="n">
         <v>0.6805555555555556</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.0291970802919708</v>
       </c>
     </row>
     <row r="102">
@@ -4824,13 +5729,22 @@
         <v>0.2916666666666666</v>
       </c>
       <c r="I102" t="n">
-        <v>0.4236111111111111</v>
+        <v>0.2916666666666666</v>
       </c>
       <c r="J102" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0.3819444444444444</v>
+      </c>
+      <c r="L102" t="n">
         <v>0.875</v>
       </c>
-      <c r="K102" t="n">
+      <c r="M102" t="n">
         <v>0.5555555555555556</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0.2992700729927008</v>
       </c>
     </row>
     <row r="103">
@@ -4867,13 +5781,22 @@
         <v>0.3263888888888888</v>
       </c>
       <c r="I103" t="n">
-        <v>0.4722222222222222</v>
+        <v>0.3263888888888888</v>
       </c>
       <c r="J103" t="n">
+        <v>0.3472222222222222</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="L103" t="n">
         <v>0.9027777777777777</v>
       </c>
-      <c r="K103" t="n">
+      <c r="M103" t="n">
         <v>0.6180555555557101</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0.1569343065693431</v>
       </c>
     </row>
     <row r="104">
@@ -4910,13 +5833,22 @@
         <v>0.8541666666666666</v>
       </c>
       <c r="I104" t="n">
-        <v>0.8472222222222222</v>
+        <v>0.8680555555555555</v>
       </c>
       <c r="J104" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0.8472222222222225</v>
+      </c>
+      <c r="L104" t="n">
         <v>0.4583333333333333</v>
       </c>
-      <c r="K104" t="n">
+      <c r="M104" t="n">
         <v>0.875</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0.3284671532846715</v>
       </c>
     </row>
     <row r="105">
@@ -4953,13 +5885,22 @@
         <v>0.8854166666666666</v>
       </c>
       <c r="I105" t="n">
-        <v>0.923611111111111</v>
+        <v>0.8958333333333333</v>
       </c>
       <c r="J105" t="n">
+        <v>0.8611111111111123</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0.9097222222222252</v>
+      </c>
+      <c r="L105" t="n">
         <v>0.4861111111111113</v>
       </c>
-      <c r="K105" t="n">
+      <c r="M105" t="n">
         <v>0.9097222222222229</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0.2773722627737226</v>
       </c>
     </row>
     <row r="106">
@@ -4996,13 +5937,22 @@
         <v>0.8680555555555556</v>
       </c>
       <c r="I106" t="n">
+        <v>0.8333333333333333</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.90625</v>
+      </c>
+      <c r="K106" t="n">
         <v>0.8819444444444444</v>
       </c>
-      <c r="J106" t="n">
+      <c r="L106" t="n">
         <v>0.4375</v>
       </c>
-      <c r="K106" t="n">
+      <c r="M106" t="n">
         <v>0.8888888888888888</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0.4343065693430657</v>
       </c>
     </row>
     <row r="107">
@@ -5039,13 +5989,22 @@
         <v>0.8333333333333333</v>
       </c>
       <c r="I107" t="n">
+        <v>0.8472222222222222</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="K107" t="n">
         <v>0.8263888888888888</v>
       </c>
-      <c r="J107" t="n">
+      <c r="L107" t="n">
         <v>0.7777777777777777</v>
       </c>
-      <c r="K107" t="n">
+      <c r="M107" t="n">
         <v>0.8958333333333333</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0.7737226277372262</v>
       </c>
     </row>
     <row r="108">
@@ -5082,13 +6041,22 @@
         <v>0.75</v>
       </c>
       <c r="I108" t="n">
-        <v>0.75</v>
+        <v>0.7569444444444444</v>
       </c>
       <c r="J108" t="n">
+        <v>0.7430555555555557</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0.7569444444444444</v>
+      </c>
+      <c r="L108" t="n">
         <v>0.3611111111111111</v>
       </c>
-      <c r="K108" t="n">
+      <c r="M108" t="n">
         <v>0.7013888888888888</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0.8467153284671532</v>
       </c>
     </row>
     <row r="109">
@@ -5125,13 +6093,22 @@
         <v>0.8402777777777778</v>
       </c>
       <c r="I109" t="n">
-        <v>0.7986111111111113</v>
+        <v>0.8541666666666667</v>
       </c>
       <c r="J109" t="n">
+        <v>0.8541666666666666</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0.7986111111111115</v>
+      </c>
+      <c r="L109" t="n">
         <v>0.3888888888888888</v>
       </c>
-      <c r="K109" t="n">
+      <c r="M109" t="n">
         <v>0.8194444444444444</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0.5218978102189782</v>
       </c>
     </row>
     <row r="110">
@@ -5168,13 +6145,22 @@
         <v>0.8194444444444444</v>
       </c>
       <c r="I110" t="n">
+        <v>0.8263888888888888</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.7708333333333334</v>
+      </c>
+      <c r="K110" t="n">
         <v>0.8055555555555555</v>
       </c>
-      <c r="J110" t="n">
+      <c r="L110" t="n">
         <v>0.6458333333333333</v>
       </c>
-      <c r="K110" t="n">
+      <c r="M110" t="n">
         <v>0.8541666666666666</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0.5547445255474452</v>
       </c>
     </row>
     <row r="111">
@@ -5211,13 +6197,22 @@
         <v>0.798611111111111</v>
       </c>
       <c r="I111" t="n">
+        <v>0.8055555555555559</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="K111" t="n">
         <v>0.7916666666666667</v>
       </c>
-      <c r="J111" t="n">
+      <c r="L111" t="n">
         <v>0.3472222222222222</v>
       </c>
-      <c r="K111" t="n">
+      <c r="M111" t="n">
         <v>0.8125</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0.5693430656934306</v>
       </c>
     </row>
     <row r="112">
@@ -5254,14 +6249,21 @@
         <v>0.5763888888888888</v>
       </c>
       <c r="I112" t="n">
-        <v>0.375</v>
+        <v>0.5902777777777778</v>
       </c>
       <c r="J112" t="n">
+        <v>0.6388888888888888</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0.3888888888888888</v>
+      </c>
+      <c r="L112" t="n">
         <v>0.0486111111111111</v>
       </c>
-      <c r="K112" t="n">
+      <c r="M112" t="n">
         <v>0.3333333333333334</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -5297,13 +6299,22 @@
         <v>0.5763888888888888</v>
       </c>
       <c r="I113" t="n">
-        <v>0.3611111111111111</v>
+        <v>0.5729166666666666</v>
       </c>
       <c r="J113" t="n">
+        <v>0.5729166666666666</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="L113" t="n">
         <v>0.06944444444444445</v>
       </c>
-      <c r="K113" t="n">
+      <c r="M113" t="n">
         <v>0.2083333333333334</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0.9854014598540146</v>
       </c>
     </row>
     <row r="114">
@@ -5340,13 +6351,22 @@
         <v>0.7222222222222222</v>
       </c>
       <c r="I114" t="n">
-        <v>0.4513888888888888</v>
+        <v>0.7222222222222223</v>
       </c>
       <c r="J114" t="n">
+        <v>0.7083333333333333</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0.4722222222222222</v>
+      </c>
+      <c r="L114" t="n">
         <v>0.0902777777777778</v>
       </c>
-      <c r="K114" t="n">
+      <c r="M114" t="n">
         <v>0.2361111111111111</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0.09489051094890513</v>
       </c>
     </row>
     <row r="115">
@@ -5383,13 +6403,22 @@
         <v>0.767361111111111</v>
       </c>
       <c r="I115" t="n">
-        <v>0.5208333333333335</v>
+        <v>0.7777777777777777</v>
       </c>
       <c r="J115" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0.5347222222222222</v>
+      </c>
+      <c r="L115" t="n">
         <v>0.02083333333333335</v>
       </c>
-      <c r="K115" t="n">
+      <c r="M115" t="n">
         <v>0.1805555555555556</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0.5875912408759123</v>
       </c>
     </row>
     <row r="116">
@@ -5426,13 +6455,22 @@
         <v>0.7430555555555555</v>
       </c>
       <c r="I116" t="n">
-        <v>0.4583333333333339</v>
+        <v>0.75</v>
       </c>
       <c r="J116" t="n">
+        <v>0.7291666666666666</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0.4861111111111114</v>
+      </c>
+      <c r="L116" t="n">
         <v>0.006944444444444444</v>
       </c>
-      <c r="K116" t="n">
+      <c r="M116" t="n">
         <v>0.1458333333333333</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0.2262773722627737</v>
       </c>
     </row>
     <row r="117">
@@ -5469,13 +6507,22 @@
         <v>0.4965277777777778</v>
       </c>
       <c r="I117" t="n">
+        <v>0.4930555555555555</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.4722222222222222</v>
+      </c>
+      <c r="K117" t="n">
         <v>0.3194444444444444</v>
       </c>
-      <c r="J117" t="n">
+      <c r="L117" t="n">
         <v>0.04166666666666668</v>
       </c>
-      <c r="K117" t="n">
+      <c r="M117" t="n">
         <v>0.2222222222222222</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0.6788321167883211</v>
       </c>
     </row>
     <row r="118">
@@ -5512,13 +6559,22 @@
         <v>0.7847222222222222</v>
       </c>
       <c r="I118" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="J118" t="n">
+        <v>0.8472222222222225</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0.5659722222222222</v>
+      </c>
+      <c r="L118" t="n">
         <v>0.01388888888888889</v>
       </c>
-      <c r="K118" t="n">
+      <c r="M118" t="n">
         <v>0.3611111111111112</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0.7043795620437956</v>
       </c>
     </row>
     <row r="119">
@@ -5555,13 +6611,22 @@
         <v>0.3506944444444444</v>
       </c>
       <c r="I119" t="n">
-        <v>0.2430555555555556</v>
+        <v>0.3472222222222222</v>
       </c>
       <c r="J119" t="n">
+        <v>0.3888888888888888</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L119" t="n">
         <v>0.1319444444444444</v>
       </c>
-      <c r="K119" t="n">
+      <c r="M119" t="n">
         <v>0.1875</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0.9525547445255473</v>
       </c>
     </row>
     <row r="120">
@@ -5598,13 +6663,22 @@
         <v>0.3819444444444444</v>
       </c>
       <c r="I120" t="n">
-        <v>0.1736111111111111</v>
+        <v>0.3888888888888888</v>
       </c>
       <c r="J120" t="n">
+        <v>0.4305555555555557</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0.1805555555555556</v>
+      </c>
+      <c r="L120" t="n">
         <v>0</v>
       </c>
-      <c r="K120" t="n">
+      <c r="M120" t="n">
         <v>0.02777777777777778</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0.4197080291970803</v>
       </c>
     </row>
     <row r="121">
@@ -5641,13 +6715,22 @@
         <v>0.5972222222222222</v>
       </c>
       <c r="I121" t="n">
-        <v>0.388888888888889</v>
+        <v>0.5972222222222222</v>
       </c>
       <c r="J121" t="n">
+        <v>0.5486111111111308</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0.4027777777777778</v>
+      </c>
+      <c r="L121" t="n">
         <v>0.125</v>
       </c>
-      <c r="K121" t="n">
+      <c r="M121" t="n">
         <v>0.2916666666666671</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0.5364963503649636</v>
       </c>
     </row>
     <row r="122">
@@ -5684,13 +6767,22 @@
         <v>0.673611111111111</v>
       </c>
       <c r="I122" t="n">
-        <v>0.6458333333333336</v>
+        <v>0.6805555555555555</v>
       </c>
       <c r="J122" t="n">
+        <v>0.6805555555555555</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0.6597222222222223</v>
+      </c>
+      <c r="L122" t="n">
         <v>0.5347222222222222</v>
       </c>
-      <c r="K122" t="n">
+      <c r="M122" t="n">
         <v>0.5833333333333333</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0.2627737226277372</v>
       </c>
     </row>
     <row r="123">
@@ -5727,13 +6819,22 @@
         <v>0.6111111111111112</v>
       </c>
       <c r="I123" t="n">
-        <v>0.6319444444444444</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="J123" t="n">
+        <v>0.6666666666666669</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0.6388888888888888</v>
+      </c>
+      <c r="L123" t="n">
         <v>0.2916666666666667</v>
       </c>
-      <c r="K123" t="n">
+      <c r="M123" t="n">
         <v>0.5208333333333337</v>
+      </c>
+      <c r="N123" t="n">
+        <v>0.291970802919708</v>
       </c>
     </row>
     <row r="124">
@@ -5770,13 +6871,22 @@
         <v>0.4375</v>
       </c>
       <c r="I124" t="n">
-        <v>0.4791666666666666</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="J124" t="n">
+        <v>0.4583333333333348</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L124" t="n">
         <v>0.3263888888888889</v>
       </c>
-      <c r="K124" t="n">
+      <c r="M124" t="n">
         <v>0.4236111111111112</v>
+      </c>
+      <c r="N124" t="n">
+        <v>0.2153284671532847</v>
       </c>
     </row>
     <row r="125">
@@ -5813,13 +6923,22 @@
         <v>0.3819444444444444</v>
       </c>
       <c r="I125" t="n">
-        <v>0.3472222222222222</v>
+        <v>0.3819444444444444</v>
       </c>
       <c r="J125" t="n">
+        <v>0.3541666666666666</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0.3645833333333333</v>
+      </c>
+      <c r="L125" t="n">
         <v>0.2013888888888889</v>
       </c>
-      <c r="K125" t="n">
+      <c r="M125" t="n">
         <v>0.2847222222222222</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0.4087591240875912</v>
       </c>
     </row>
     <row r="126">
@@ -5856,13 +6975,22 @@
         <v>0.4722222222222222</v>
       </c>
       <c r="I126" t="n">
-        <v>0.4861111111111111</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="J126" t="n">
+        <v>0.4930555555555555</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0.4930555555555555</v>
+      </c>
+      <c r="L126" t="n">
         <v>0.3194444444444444</v>
       </c>
-      <c r="K126" t="n">
+      <c r="M126" t="n">
         <v>0.4513888888888888</v>
+      </c>
+      <c r="N126" t="n">
+        <v>0.8175182481751825</v>
       </c>
     </row>
     <row r="127">
@@ -5899,13 +7027,22 @@
         <v>0.2743055555555556</v>
       </c>
       <c r="I127" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="J127" t="n">
+        <v>0.3055555555555555</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0.2361111111111111</v>
+      </c>
+      <c r="L127" t="n">
         <v>0.3055555555555561</v>
       </c>
-      <c r="K127" t="n">
+      <c r="M127" t="n">
         <v>0.1666666666666667</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0.9124087591240876</v>
       </c>
     </row>
     <row r="128">
@@ -5942,13 +7079,22 @@
         <v>0.875</v>
       </c>
       <c r="I128" t="n">
-        <v>0.8541666666666681</v>
+        <v>0.7430555555555558</v>
       </c>
       <c r="J128" t="n">
+        <v>0.90625</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0.8680555555555555</v>
+      </c>
+      <c r="L128" t="n">
         <v>0.3402777777777797</v>
       </c>
-      <c r="K128" t="n">
+      <c r="M128" t="n">
         <v>0.8263888888888888</v>
+      </c>
+      <c r="N128" t="n">
+        <v>0.6386861313868613</v>
       </c>
     </row>
     <row r="129">
@@ -5985,13 +7131,22 @@
         <v>0.5763888888888888</v>
       </c>
       <c r="I129" t="n">
-        <v>0.5625</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="J129" t="n">
+        <v>0.4652777777777777</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0.5659722222222222</v>
+      </c>
+      <c r="L129" t="n">
         <v>0.2777777777777778</v>
       </c>
-      <c r="K129" t="n">
+      <c r="M129" t="n">
         <v>0.5277777777777778</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0.3503649635036497</v>
       </c>
     </row>
     <row r="130">
@@ -6028,13 +7183,22 @@
         <v>0.4236111111111111</v>
       </c>
       <c r="I130" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.4305555555555555</v>
       </c>
       <c r="J130" t="n">
+        <v>0.4027777777777777</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0.4097222222222222</v>
+      </c>
+      <c r="L130" t="n">
         <v>0.3333333333333333</v>
       </c>
-      <c r="K130" t="n">
+      <c r="M130" t="n">
         <v>0.3680555555555555</v>
+      </c>
+      <c r="N130" t="n">
+        <v>0.6788321167883211</v>
       </c>
     </row>
     <row r="131">
@@ -6071,14 +7235,21 @@
         <v>0.1388888888888889</v>
       </c>
       <c r="I131" t="n">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.1041666666666667</v>
+      </c>
+      <c r="K131" t="n">
         <v>0.1458333333333333</v>
       </c>
-      <c r="J131" t="n">
+      <c r="L131" t="n">
         <v>0.5486111111111112</v>
       </c>
-      <c r="K131" t="n">
+      <c r="M131" t="n">
         <v>0.2986111111111111</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -6114,13 +7285,22 @@
         <v>0.7152777777777778</v>
       </c>
       <c r="I132" t="n">
-        <v>0.7083333333333337</v>
+        <v>0.7152777777777777</v>
       </c>
       <c r="J132" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0.6944444444444444</v>
+      </c>
+      <c r="L132" t="n">
         <v>0.4236111111111111</v>
       </c>
-      <c r="K132" t="n">
+      <c r="M132" t="n">
         <v>0.736111111111112</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -6157,13 +7337,22 @@
         <v>0.2256944444444444</v>
       </c>
       <c r="I133" t="n">
-        <v>0.2361111111111111</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="J133" t="n">
+        <v>0.2152777777777778</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="L133" t="n">
         <v>0.5277777777777778</v>
       </c>
-      <c r="K133" t="n">
+      <c r="M133" t="n">
         <v>0.3958333333333334</v>
+      </c>
+      <c r="N133" t="n">
+        <v>0.1751824817518248</v>
       </c>
     </row>
     <row r="134">
@@ -6200,13 +7389,22 @@
         <v>0.4166666666666666</v>
       </c>
       <c r="I134" t="n">
-        <v>0.5277777777777778</v>
+        <v>0.4236111111111111</v>
       </c>
       <c r="J134" t="n">
+        <v>0.4166666666666669</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0.5138888888888888</v>
+      </c>
+      <c r="L134" t="n">
         <v>0.7916666666666667</v>
       </c>
-      <c r="K134" t="n">
+      <c r="M134" t="n">
         <v>0.6319444444444444</v>
+      </c>
+      <c r="N134" t="n">
+        <v>0.3978102189781022</v>
       </c>
     </row>
     <row r="135">
@@ -6243,13 +7441,22 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="I135" t="n">
-        <v>0.7222222222222228</v>
+        <v>0.5625</v>
       </c>
       <c r="J135" t="n">
+        <v>0.6145833333333333</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="L135" t="n">
         <v>0.9583333333333333</v>
       </c>
-      <c r="K135" t="n">
+      <c r="M135" t="n">
         <v>0.8402777777777779</v>
+      </c>
+      <c r="N135" t="n">
+        <v>0.3759124087591241</v>
       </c>
     </row>
     <row r="136">
@@ -6286,13 +7493,22 @@
         <v>0.4479166666666666</v>
       </c>
       <c r="I136" t="n">
-        <v>0.611111111111111</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="J136" t="n">
+        <v>0.4513888888888888</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0.5763888888888888</v>
+      </c>
+      <c r="L136" t="n">
         <v>0.7569444444444444</v>
       </c>
-      <c r="K136" t="n">
+      <c r="M136" t="n">
         <v>0.6736111111111112</v>
+      </c>
+      <c r="N136" t="n">
+        <v>0.4452554744525548</v>
       </c>
     </row>
     <row r="137">
@@ -6329,13 +7545,22 @@
         <v>0.1805555555555556</v>
       </c>
       <c r="I137" t="n">
+        <v>0.1805555555555556</v>
+      </c>
+      <c r="J137" t="n">
         <v>0.2083333333333333</v>
       </c>
-      <c r="J137" t="n">
+      <c r="K137" t="n">
+        <v>0.1944444444444444</v>
+      </c>
+      <c r="L137" t="n">
         <v>0.6666666666666669</v>
       </c>
-      <c r="K137" t="n">
+      <c r="M137" t="n">
         <v>0.3263888888888889</v>
+      </c>
+      <c r="N137" t="n">
+        <v>0.7664233576642335</v>
       </c>
     </row>
     <row r="138">
@@ -6372,13 +7597,22 @@
         <v>0.2048611111111111</v>
       </c>
       <c r="I138" t="n">
-        <v>0.3055555555555555</v>
+        <v>0.2013888888888889</v>
       </c>
       <c r="J138" t="n">
+        <v>0.2291666666666667</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="L138" t="n">
         <v>0.9305555555555555</v>
       </c>
-      <c r="K138" t="n">
+      <c r="M138" t="n">
         <v>0.4444444444444444</v>
+      </c>
+      <c r="N138" t="n">
+        <v>0.8029197080291971</v>
       </c>
     </row>
     <row r="139">
@@ -6415,13 +7649,22 @@
         <v>0.7847222222222222</v>
       </c>
       <c r="I139" t="n">
-        <v>0.8680555555555555</v>
+        <v>0.7847222222222234</v>
       </c>
       <c r="J139" t="n">
+        <v>0.7569444444444444</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0.8402777777777778</v>
+      </c>
+      <c r="L139" t="n">
         <v>0.9166666666666673</v>
       </c>
-      <c r="K139" t="n">
+      <c r="M139" t="n">
         <v>0.9375</v>
+      </c>
+      <c r="N139" t="n">
+        <v>0.04014598540145985</v>
       </c>
     </row>
     <row r="140">
@@ -6458,13 +7701,22 @@
         <v>0.673611111111111</v>
       </c>
       <c r="I140" t="n">
-        <v>0.7152777777777773</v>
+        <v>0.6701388888888888</v>
       </c>
       <c r="J140" t="n">
+        <v>0.6145833333333333</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0.7013888888888888</v>
+      </c>
+      <c r="L140" t="n">
         <v>0.7083333333333333</v>
       </c>
-      <c r="K140" t="n">
+      <c r="M140" t="n">
         <v>0.7847222222222228</v>
+      </c>
+      <c r="N140" t="n">
+        <v>0.4525547445255474</v>
       </c>
     </row>
     <row r="141">
@@ -6501,13 +7753,22 @@
         <v>0.9166666666666682</v>
       </c>
       <c r="I141" t="n">
+        <v>0.923611111111111</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.9513888888888888</v>
+      </c>
+      <c r="K141" t="n">
         <v>0.8194444444444444</v>
       </c>
-      <c r="J141" t="n">
+      <c r="L141" t="n">
         <v>0.2222222222222222</v>
       </c>
-      <c r="K141" t="n">
+      <c r="M141" t="n">
         <v>0.798611111111111</v>
+      </c>
+      <c r="N141" t="n">
+        <v>0.1678832116788321</v>
       </c>
     </row>
     <row r="142">
@@ -6544,13 +7805,22 @@
         <v>0.7013888888888888</v>
       </c>
       <c r="I142" t="n">
-        <v>0.7708333333333333</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="J142" t="n">
+        <v>0.5729166666666666</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0.7708333333333334</v>
+      </c>
+      <c r="L142" t="n">
         <v>0.75</v>
       </c>
-      <c r="K142" t="n">
+      <c r="M142" t="n">
         <v>0.7777777777777779</v>
+      </c>
+      <c r="N142" t="n">
+        <v>0.1897810218978103</v>
       </c>
     </row>
     <row r="143">
@@ -6587,13 +7857,22 @@
         <v>0.9270833333333333</v>
       </c>
       <c r="I143" t="n">
-        <v>0.9722222222222223</v>
+        <v>0.9305555555555555</v>
       </c>
       <c r="J143" t="n">
+        <v>0.9305555555555555</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0.9722222222222224</v>
+      </c>
+      <c r="L143" t="n">
         <v>0.7291666666666669</v>
       </c>
-      <c r="K143" t="n">
+      <c r="M143" t="n">
         <v>0.9513888888888888</v>
+      </c>
+      <c r="N143" t="n">
+        <v>0.072992700729927</v>
       </c>
     </row>
     <row r="144">
@@ -6630,13 +7909,22 @@
         <v>0.8472222222222238</v>
       </c>
       <c r="I144" t="n">
-        <v>0.9097222222222224</v>
+        <v>0.8611111111111134</v>
       </c>
       <c r="J144" t="n">
+        <v>0.8055555555555555</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="L144" t="n">
         <v>0.8263888888888888</v>
       </c>
-      <c r="K144" t="n">
+      <c r="M144" t="n">
         <v>0.9305555555555555</v>
+      </c>
+      <c r="N144" t="n">
+        <v>0.5985401459854014</v>
       </c>
     </row>
     <row r="145">
@@ -6673,13 +7961,22 @@
         <v>0.4479166666666666</v>
       </c>
       <c r="I145" t="n">
-        <v>0.625</v>
+        <v>0.4513888888888888</v>
       </c>
       <c r="J145" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0.5868055555555556</v>
+      </c>
+      <c r="L145" t="n">
         <v>0.8680555555555559</v>
       </c>
-      <c r="K145" t="n">
+      <c r="M145" t="n">
         <v>0.6875</v>
+      </c>
+      <c r="N145" t="n">
+        <v>0.8613138686131386</v>
       </c>
     </row>
     <row r="146">
@@ -6716,13 +8013,22 @@
         <v>0.8263888888888888</v>
       </c>
       <c r="I146" t="n">
-        <v>0.861111111111111</v>
+        <v>0.8402777777777777</v>
       </c>
       <c r="J146" t="n">
+        <v>0.784722222222224</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0.8541666666666667</v>
+      </c>
+      <c r="L146" t="n">
         <v>0.7222222222222223</v>
       </c>
-      <c r="K146" t="n">
+      <c r="M146" t="n">
         <v>0.9166666666666672</v>
+      </c>
+      <c r="N146" t="n">
+        <v>0.510948905109489</v>
       </c>
     </row>
   </sheetData>

--- a/Analyzer Results/RESULTS_TT_MERGED_FIT.xlsx
+++ b/Analyzer Results/RESULTS_TT_MERGED_FIT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N231"/>
+  <dimension ref="A1:M231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,11 +499,6 @@
           <t>AUC</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>percentPPI</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -553,7 +548,6 @@
       <c r="M2" t="n">
         <v>0.1353711790393013</v>
       </c>
-      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -603,9 +597,6 @@
       <c r="M3" t="n">
         <v>0.074235807860262</v>
       </c>
-      <c r="N3" t="n">
-        <v>0.9275700934579438</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -655,9 +646,6 @@
       <c r="M4" t="n">
         <v>0.02620087336244541</v>
       </c>
-      <c r="N4" t="n">
-        <v>0.06542056074766354</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -707,9 +695,6 @@
       <c r="M5" t="n">
         <v>0.01746724890829694</v>
       </c>
-      <c r="N5" t="n">
-        <v>0.1074766355140187</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -759,9 +744,6 @@
       <c r="M6" t="n">
         <v>0.1572052401746725</v>
       </c>
-      <c r="N6" t="n">
-        <v>0.0514018691588785</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -811,9 +793,6 @@
       <c r="M7" t="n">
         <v>0.2838427947598253</v>
       </c>
-      <c r="N7" t="n">
-        <v>0.01869158878504673</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -863,9 +842,6 @@
       <c r="M8" t="n">
         <v>0.09606986899563319</v>
       </c>
-      <c r="N8" t="n">
-        <v>0.02570093457943925</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -915,9 +891,6 @@
       <c r="M9" t="n">
         <v>0.06550218340611354</v>
       </c>
-      <c r="N9" t="n">
-        <v>0.9275700934579438</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -967,9 +940,6 @@
       <c r="M10" t="n">
         <v>0.004366812227074236</v>
       </c>
-      <c r="N10" t="n">
-        <v>0.9042056074766354</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1019,9 +989,6 @@
       <c r="M11" t="n">
         <v>0.08296943231441048</v>
       </c>
-      <c r="N11" t="n">
-        <v>0.5771028037383177</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1071,9 +1038,6 @@
       <c r="M12" t="n">
         <v>0.01310043668122271</v>
       </c>
-      <c r="N12" t="n">
-        <v>0.8528037383177569</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1123,9 +1087,6 @@
       <c r="M13" t="n">
         <v>0.08733624454148471</v>
       </c>
-      <c r="N13" t="n">
-        <v>0.9626168224299065</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1175,9 +1136,6 @@
       <c r="M14" t="n">
         <v>0.03056768558951965</v>
       </c>
-      <c r="N14" t="n">
-        <v>0.8925233644859812</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1227,9 +1185,6 @@
       <c r="M15" t="n">
         <v>0.170305676855898</v>
       </c>
-      <c r="N15" t="n">
-        <v>0.1542056074766355</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1279,7 +1234,6 @@
       <c r="M16" t="n">
         <v>0.4454148471615719</v>
       </c>
-      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1329,9 +1283,6 @@
       <c r="M17" t="n">
         <v>0.4978165938864629</v>
       </c>
-      <c r="N17" t="n">
-        <v>0.3177570093457944</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1381,9 +1332,6 @@
       <c r="M18" t="n">
         <v>0.4716157205240175</v>
       </c>
-      <c r="N18" t="n">
-        <v>0.2616822429906542</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1433,9 +1381,6 @@
       <c r="M19" t="n">
         <v>0.5982532751091703</v>
       </c>
-      <c r="N19" t="n">
-        <v>0.6214953271028036</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1485,9 +1430,6 @@
       <c r="M20" t="n">
         <v>0.2358078602620087</v>
       </c>
-      <c r="N20" t="n">
-        <v>0.4369158878504673</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1537,9 +1479,6 @@
       <c r="M21" t="n">
         <v>0.462882096069869</v>
       </c>
-      <c r="N21" t="n">
-        <v>0.7406542056074765</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1589,9 +1528,6 @@
       <c r="M22" t="n">
         <v>0.5327510917030568</v>
       </c>
-      <c r="N22" t="n">
-        <v>0.5887850467289719</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1641,9 +1577,6 @@
       <c r="M23" t="n">
         <v>0.4847161572052401</v>
       </c>
-      <c r="N23" t="n">
-        <v>0.8271028037383177</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1693,9 +1626,6 @@
       <c r="M24" t="n">
         <v>0.6288209606986899</v>
       </c>
-      <c r="N24" t="n">
-        <v>0.6845794392523363</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1745,9 +1675,6 @@
       <c r="M25" t="n">
         <v>0.5502183406113537</v>
       </c>
-      <c r="N25" t="n">
-        <v>0.7032710280373831</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1797,9 +1724,6 @@
       <c r="M26" t="n">
         <v>0.9606986899563321</v>
       </c>
-      <c r="N26" t="n">
-        <v>0.4789719626168224</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1849,9 +1773,6 @@
       <c r="M27" t="n">
         <v>0.7510917030567685</v>
       </c>
-      <c r="N27" t="n">
-        <v>0.514018691588785</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1901,9 +1822,6 @@
       <c r="M28" t="n">
         <v>0.6550218340611353</v>
       </c>
-      <c r="N28" t="n">
-        <v>0.7126168224299065</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1953,9 +1871,6 @@
       <c r="M29" t="n">
         <v>0.7248908296943234</v>
       </c>
-      <c r="N29" t="n">
-        <v>0.7032710280373831</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2005,9 +1920,6 @@
       <c r="M30" t="n">
         <v>0.4410480349344978</v>
       </c>
-      <c r="N30" t="n">
-        <v>0.5280373831775701</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2057,7 +1969,6 @@
       <c r="M31" t="n">
         <v>0.5676855895196506</v>
       </c>
-      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2107,9 +2018,6 @@
       <c r="M32" t="n">
         <v>0.6462882096069869</v>
       </c>
-      <c r="N32" t="n">
-        <v>0.1331775700934579</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2159,9 +2067,6 @@
       <c r="M33" t="n">
         <v>0.222707423580786</v>
       </c>
-      <c r="N33" t="n">
-        <v>0.9859813084112148</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2211,9 +2116,6 @@
       <c r="M34" t="n">
         <v>0.4585152838427947</v>
       </c>
-      <c r="N34" t="n">
-        <v>0.09579439252336448</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2263,9 +2165,6 @@
       <c r="M35" t="n">
         <v>0.5589519650655022</v>
       </c>
-      <c r="N35" t="n">
-        <v>0.5677570093457944</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2315,9 +2214,6 @@
       <c r="M36" t="n">
         <v>0</v>
       </c>
-      <c r="N36" t="n">
-        <v>0.5467289719626168</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2367,9 +2263,6 @@
       <c r="M37" t="n">
         <v>0.6069868995633187</v>
       </c>
-      <c r="N37" t="n">
-        <v>0.2126168224299065</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2419,9 +2312,6 @@
       <c r="M38" t="n">
         <v>0.4061135371179039</v>
       </c>
-      <c r="N38" t="n">
-        <v>0.2219626168224299</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2471,9 +2361,6 @@
       <c r="M39" t="n">
         <v>0.3493449781659388</v>
       </c>
-      <c r="N39" t="n">
-        <v>0.4228971962616822</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2523,9 +2410,6 @@
       <c r="M40" t="n">
         <v>0.3624454148471618</v>
       </c>
-      <c r="N40" t="n">
-        <v>0.6752336448598131</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2575,9 +2459,6 @@
       <c r="M41" t="n">
         <v>0.4148471615720525</v>
       </c>
-      <c r="N41" t="n">
-        <v>0.6355140186915886</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2627,9 +2508,6 @@
       <c r="M42" t="n">
         <v>0.4323144104803493</v>
       </c>
-      <c r="N42" t="n">
-        <v>0.9415887850467288</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2679,9 +2557,6 @@
       <c r="M43" t="n">
         <v>0.6375545851528392</v>
       </c>
-      <c r="N43" t="n">
-        <v>0.3855140186915887</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2731,9 +2606,6 @@
       <c r="M44" t="n">
         <v>0.5720524017467249</v>
       </c>
-      <c r="N44" t="n">
-        <v>0.3714953271028038</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2783,7 +2655,6 @@
       <c r="M45" t="n">
         <v>0.5021834061135371</v>
       </c>
-      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2833,9 +2704,6 @@
       <c r="M46" t="n">
         <v>0.37117903930131</v>
       </c>
-      <c r="N46" t="n">
-        <v>0.2476635514018691</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2885,9 +2753,6 @@
       <c r="M47" t="n">
         <v>0.04803493449781659</v>
       </c>
-      <c r="N47" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2937,9 +2802,6 @@
       <c r="M48" t="n">
         <v>0.3973799126637554</v>
       </c>
-      <c r="N48" t="n">
-        <v>0.5373831775700935</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2989,9 +2851,6 @@
       <c r="M49" t="n">
         <v>0.3755458515283843</v>
       </c>
-      <c r="N49" t="n">
-        <v>0.2032710280373832</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3041,9 +2900,6 @@
       <c r="M50" t="n">
         <v>0.1310043668122271</v>
       </c>
-      <c r="N50" t="n">
-        <v>0.7850467289719625</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3093,9 +2949,6 @@
       <c r="M51" t="n">
         <v>0.2620087336244541</v>
       </c>
-      <c r="N51" t="n">
-        <v>0.9135514018691588</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3145,9 +2998,6 @@
       <c r="M52" t="n">
         <v>0.2401746724890829</v>
       </c>
-      <c r="N52" t="n">
-        <v>0.8130841121495327</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3197,9 +3047,6 @@
       <c r="M53" t="n">
         <v>0.148471615720524</v>
       </c>
-      <c r="N53" t="n">
-        <v>0.75</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3249,9 +3096,6 @@
       <c r="M54" t="n">
         <v>0.1921397379912664</v>
       </c>
-      <c r="N54" t="n">
-        <v>0.8014018691588785</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3301,9 +3145,6 @@
       <c r="M55" t="n">
         <v>0.07860262008733623</v>
       </c>
-      <c r="N55" t="n">
-        <v>0.8808411214953271</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3353,9 +3194,6 @@
       <c r="M56" t="n">
         <v>0.4890829694323144</v>
       </c>
-      <c r="N56" t="n">
-        <v>0.3271028037383177</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3405,9 +3243,6 @@
       <c r="M57" t="n">
         <v>0.1091703056768559</v>
       </c>
-      <c r="N57" t="n">
-        <v>0.1962616822429906</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3457,9 +3292,6 @@
       <c r="M58" t="n">
         <v>0.03493449781659388</v>
       </c>
-      <c r="N58" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3509,9 +3341,6 @@
       <c r="M59" t="n">
         <v>0.1222707423580786</v>
       </c>
-      <c r="N59" t="n">
-        <v>0.1191588785046729</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3561,9 +3390,6 @@
       <c r="M60" t="n">
         <v>0.04366812227074236</v>
       </c>
-      <c r="N60" t="n">
-        <v>0.3644859813084112</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3613,9 +3439,6 @@
       <c r="M61" t="n">
         <v>0.1048034934497817</v>
       </c>
-      <c r="N61" t="n">
-        <v>0.3481308411214953</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3665,9 +3488,6 @@
       <c r="M62" t="n">
         <v>0.1179039301310044</v>
       </c>
-      <c r="N62" t="n">
-        <v>0.7663551401869159</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3717,9 +3537,6 @@
       <c r="M63" t="n">
         <v>0.05676855895196506</v>
       </c>
-      <c r="N63" t="n">
-        <v>0.4042056074766355</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3769,9 +3586,6 @@
       <c r="M64" t="n">
         <v>0.1004366812227074</v>
       </c>
-      <c r="N64" t="n">
-        <v>0.2990654205607476</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3821,9 +3635,6 @@
       <c r="M65" t="n">
         <v>0.09170305676855894</v>
       </c>
-      <c r="N65" t="n">
-        <v>0.3387850467289719</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3873,9 +3684,6 @@
       <c r="M66" t="n">
         <v>0.06986899563318777</v>
       </c>
-      <c r="N66" t="n">
-        <v>0.7219626168224298</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3925,9 +3733,6 @@
       <c r="M67" t="n">
         <v>0.1746724890829694</v>
       </c>
-      <c r="N67" t="n">
-        <v>0.1752336448598131</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3977,9 +3782,6 @@
       <c r="M68" t="n">
         <v>0.1135371179039301</v>
       </c>
-      <c r="N68" t="n">
-        <v>0.4485981308411214</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4029,7 +3831,6 @@
       <c r="M69" t="n">
         <v>0.5240174672489083</v>
       </c>
-      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4079,9 +3880,6 @@
       <c r="M70" t="n">
         <v>0.9737991266375545</v>
       </c>
-      <c r="N70" t="n">
-        <v>0.03738317757009346</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4131,9 +3929,6 @@
       <c r="M71" t="n">
         <v>0.9170305676855894</v>
       </c>
-      <c r="N71" t="n">
-        <v>0.08177570093457943</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4183,9 +3978,6 @@
       <c r="M72" t="n">
         <v>0.9301310043668122</v>
       </c>
-      <c r="N72" t="n">
-        <v>0.1845794392523364</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4235,9 +4027,6 @@
       <c r="M73" t="n">
         <v>0.9563318777292578</v>
       </c>
-      <c r="N73" t="n">
-        <v>0.2336448598130841</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4287,9 +4076,6 @@
       <c r="M74" t="n">
         <v>0.8296943231441047</v>
       </c>
-      <c r="N74" t="n">
-        <v>0.07476635514018691</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4339,9 +4125,6 @@
       <c r="M75" t="n">
         <v>0.6812227074235807</v>
       </c>
-      <c r="N75" t="n">
-        <v>0.8364485981308412</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4391,9 +4174,6 @@
       <c r="M76" t="n">
         <v>0.7030567685589519</v>
       </c>
-      <c r="N76" t="n">
-        <v>0.6915887850467289</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4443,9 +4223,6 @@
       <c r="M77" t="n">
         <v>0.2096069868995633</v>
       </c>
-      <c r="N77" t="n">
-        <v>0.4976635514018691</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4495,9 +4272,6 @@
       <c r="M78" t="n">
         <v>0.6724890829694323</v>
       </c>
-      <c r="N78" t="n">
-        <v>0.4299065420560748</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4547,9 +4321,6 @@
       <c r="M79" t="n">
         <v>0.5196506550218341</v>
       </c>
-      <c r="N79" t="n">
-        <v>0.8644859813084111</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4599,9 +4370,6 @@
       <c r="M80" t="n">
         <v>0.5633187772925764</v>
       </c>
-      <c r="N80" t="n">
-        <v>0.4649532710280373</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4651,7 +4419,6 @@
       <c r="M81" t="n">
         <v>0.537117903930131</v>
       </c>
-      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -4701,9 +4468,6 @@
       <c r="M82" t="n">
         <v>0.3537117903930131</v>
       </c>
-      <c r="N82" t="n">
-        <v>0.1448598130841121</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -4753,9 +4517,6 @@
       <c r="M83" t="n">
         <v>0.4803493449781659</v>
       </c>
-      <c r="N83" t="n">
-        <v>0.06542056074766354</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -4805,9 +4566,6 @@
       <c r="M84" t="n">
         <v>0.4279475982532751</v>
       </c>
-      <c r="N84" t="n">
-        <v>0.1074766355140187</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -4857,9 +4615,6 @@
       <c r="M85" t="n">
         <v>0.6506550218340611</v>
       </c>
-      <c r="N85" t="n">
-        <v>0.0514018691588785</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -4909,9 +4664,6 @@
       <c r="M86" t="n">
         <v>0.5458515283842794</v>
       </c>
-      <c r="N86" t="n">
-        <v>0.01869158878504673</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4961,9 +4713,6 @@
       <c r="M87" t="n">
         <v>0.165938864628821</v>
       </c>
-      <c r="N87" t="n">
-        <v>0.9275700934579438</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -5013,9 +4762,6 @@
       <c r="M88" t="n">
         <v>0.1834061135371179</v>
       </c>
-      <c r="N88" t="n">
-        <v>0.5771028037383177</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -5065,9 +4811,6 @@
       <c r="M89" t="n">
         <v>0.0611353711790393</v>
       </c>
-      <c r="N89" t="n">
-        <v>0.9509345794392523</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -5117,9 +4860,6 @@
       <c r="M90" t="n">
         <v>0.05240174672489083</v>
       </c>
-      <c r="N90" t="n">
-        <v>0.8528037383177569</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -5169,9 +4909,6 @@
       <c r="M91" t="n">
         <v>0.2663755458515284</v>
       </c>
-      <c r="N91" t="n">
-        <v>0.9626168224299065</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -5221,9 +4958,6 @@
       <c r="M92" t="n">
         <v>0.3449781659388646</v>
       </c>
-      <c r="N92" t="n">
-        <v>0.8925233644859812</v>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -5273,7 +5007,6 @@
       <c r="M93" t="n">
         <v>0.9257641921397379</v>
       </c>
-      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -5323,9 +5056,6 @@
       <c r="M94" t="n">
         <v>0.8820960698689956</v>
       </c>
-      <c r="N94" t="n">
-        <v>0.3107476635514018</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -5375,9 +5105,6 @@
       <c r="M95" t="n">
         <v>0.5851528384279491</v>
       </c>
-      <c r="N95" t="n">
-        <v>0.9766355140186915</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -5427,9 +5154,6 @@
       <c r="M96" t="n">
         <v>0.8733624454148471</v>
       </c>
-      <c r="N96" t="n">
-        <v>0.2616822429906542</v>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -5479,9 +5203,6 @@
       <c r="M97" t="n">
         <v>0.74235807860262</v>
       </c>
-      <c r="N97" t="n">
-        <v>0.2616822429906542</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -5531,9 +5252,6 @@
       <c r="M98" t="n">
         <v>0.8602620087336245</v>
       </c>
-      <c r="N98" t="n">
-        <v>0.3948598130841121</v>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -5583,9 +5301,6 @@
       <c r="M99" t="n">
         <v>0.7379912663755458</v>
       </c>
-      <c r="N99" t="n">
-        <v>0.6214953271028036</v>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -5635,9 +5350,6 @@
       <c r="M100" t="n">
         <v>0.7903930131004366</v>
       </c>
-      <c r="N100" t="n">
-        <v>0.4369158878504673</v>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -5687,9 +5399,6 @@
       <c r="M101" t="n">
         <v>0.7641921397379913</v>
       </c>
-      <c r="N101" t="n">
-        <v>0.7406542056074765</v>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -5739,9 +5448,6 @@
       <c r="M102" t="n">
         <v>0.9039301310043668</v>
       </c>
-      <c r="N102" t="n">
-        <v>0.5887850467289719</v>
-      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -5791,9 +5497,6 @@
       <c r="M103" t="n">
         <v>0.8427947598253275</v>
       </c>
-      <c r="N103" t="n">
-        <v>0.4789719626168224</v>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -5843,9 +5546,6 @@
       <c r="M104" t="n">
         <v>0.8384279475982532</v>
       </c>
-      <c r="N104" t="n">
-        <v>0.514018691588785</v>
-      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -5895,9 +5595,6 @@
       <c r="M105" t="n">
         <v>0.8995633187772926</v>
       </c>
-      <c r="N105" t="n">
-        <v>0.7126168224299065</v>
-      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -5947,7 +5644,6 @@
       <c r="M106" t="n">
         <v>0.3100436681222707</v>
       </c>
-      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -5997,9 +5693,6 @@
       <c r="M107" t="n">
         <v>0.200873362445415</v>
       </c>
-      <c r="N107" t="n">
-        <v>0.1331775700934579</v>
-      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -6049,9 +5742,6 @@
       <c r="M108" t="n">
         <v>0.03930131004366812</v>
       </c>
-      <c r="N108" t="n">
-        <v>0.9859813084112148</v>
-      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -6101,9 +5791,6 @@
       <c r="M109" t="n">
         <v>0.3362445414847162</v>
       </c>
-      <c r="N109" t="n">
-        <v>0.09579439252336448</v>
-      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -6153,9 +5840,6 @@
       <c r="M110" t="n">
         <v>0.3406113537117904</v>
       </c>
-      <c r="N110" t="n">
-        <v>0.5677570093457944</v>
-      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -6205,9 +5889,6 @@
       <c r="M111" t="n">
         <v>0.1877729257641921</v>
       </c>
-      <c r="N111" t="n">
-        <v>0.6518691588785046</v>
-      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -6257,9 +5938,6 @@
       <c r="M112" t="n">
         <v>0.2707423580786026</v>
       </c>
-      <c r="N112" t="n">
-        <v>0.2219626168224299</v>
-      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -6309,9 +5987,6 @@
       <c r="M113" t="n">
         <v>0.2882096069868996</v>
       </c>
-      <c r="N113" t="n">
-        <v>0.6962616822429906</v>
-      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -6361,9 +6036,6 @@
       <c r="M114" t="n">
         <v>0.2183406113537118</v>
       </c>
-      <c r="N114" t="n">
-        <v>0.4228971962616822</v>
-      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -6413,9 +6085,6 @@
       <c r="M115" t="n">
         <v>0.2576419213973799</v>
       </c>
-      <c r="N115" t="n">
-        <v>0.6752336448598131</v>
-      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -6465,9 +6134,6 @@
       <c r="M116" t="n">
         <v>0.1528384279475982</v>
       </c>
-      <c r="N116" t="n">
-        <v>0.6355140186915886</v>
-      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -6517,9 +6183,6 @@
       <c r="M117" t="n">
         <v>0.5109170305676856</v>
       </c>
-      <c r="N117" t="n">
-        <v>0.3714953271028038</v>
-      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -6569,9 +6232,6 @@
       <c r="M118" t="n">
         <v>0.1397379912663755</v>
       </c>
-      <c r="N118" t="n">
-        <v>0.4976635514018691</v>
-      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -6621,7 +6281,6 @@
       <c r="M119" t="n">
         <v>0.8558951965065502</v>
       </c>
-      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -6671,9 +6330,6 @@
       <c r="M120" t="n">
         <v>0.8689956331877737</v>
       </c>
-      <c r="N120" t="n">
-        <v>0.2897196261682243</v>
-      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -6723,9 +6379,6 @@
       <c r="M121" t="n">
         <v>0.851528384279476</v>
       </c>
-      <c r="N121" t="n">
-        <v>0.2757009345794392</v>
-      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -6775,9 +6428,6 @@
       <c r="M122" t="n">
         <v>0.6986899563318777</v>
       </c>
-      <c r="N122" t="n">
-        <v>0.5373831775700935</v>
-      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -6827,9 +6477,6 @@
       <c r="M123" t="n">
         <v>0.8034934497816594</v>
       </c>
-      <c r="N123" t="n">
-        <v>0.7850467289719625</v>
-      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -6879,9 +6526,6 @@
       <c r="M124" t="n">
         <v>0.2489082969432314</v>
       </c>
-      <c r="N124" t="n">
-        <v>0.8130841121495327</v>
-      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -6931,9 +6575,6 @@
       <c r="M125" t="n">
         <v>0.759825327510917</v>
       </c>
-      <c r="N125" t="n">
-        <v>0.75</v>
-      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -6983,9 +6624,6 @@
       <c r="M126" t="n">
         <v>0.8122270742358079</v>
       </c>
-      <c r="N126" t="n">
-        <v>0.7593457943925233</v>
-      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -7035,9 +6673,6 @@
       <c r="M127" t="n">
         <v>0.6943231441048034</v>
       </c>
-      <c r="N127" t="n">
-        <v>0.8014018691588785</v>
-      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -7087,9 +6722,6 @@
       <c r="M128" t="n">
         <v>0.6593886462882093</v>
       </c>
-      <c r="N128" t="n">
-        <v>0.6028037383177569</v>
-      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -7139,9 +6771,6 @@
       <c r="M129" t="n">
         <v>0.8209606986899566</v>
       </c>
-      <c r="N129" t="n">
-        <v>0.8808411214953271</v>
-      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -7191,9 +6820,6 @@
       <c r="M130" t="n">
         <v>0.7161572052401749</v>
       </c>
-      <c r="N130" t="n">
-        <v>0.3271028037383177</v>
-      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -7243,9 +6869,6 @@
       <c r="M131" t="n">
         <v>0.7554585152838428</v>
       </c>
-      <c r="N131" t="n">
-        <v>0.6518691588785046</v>
-      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -7295,7 +6918,6 @@
       <c r="M132" t="n">
         <v>0.7685589519650655</v>
       </c>
-      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -7345,9 +6967,6 @@
       <c r="M133" t="n">
         <v>0.3842794759825328</v>
       </c>
-      <c r="N133" t="n">
-        <v>0.1962616822429906</v>
-      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -7397,9 +7016,6 @@
       <c r="M134" t="n">
         <v>0.4192139737991266</v>
       </c>
-      <c r="N134" t="n">
-        <v>0.9719626168224306</v>
-      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -7449,9 +7065,6 @@
       <c r="M135" t="n">
         <v>0.5065502183406113</v>
       </c>
-      <c r="N135" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -7501,9 +7114,6 @@
       <c r="M136" t="n">
         <v>0.7292576419213974</v>
       </c>
-      <c r="N136" t="n">
-        <v>0.8738317757009345</v>
-      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -7553,9 +7163,6 @@
       <c r="M137" t="n">
         <v>0.685589519650655</v>
       </c>
-      <c r="N137" t="n">
-        <v>0.1191588785046729</v>
-      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -7605,9 +7212,6 @@
       <c r="M138" t="n">
         <v>0.6331877729257648</v>
       </c>
-      <c r="N138" t="n">
-        <v>0.3574766355140186</v>
-      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -7657,9 +7261,6 @@
       <c r="M139" t="n">
         <v>0.9126637554585154</v>
       </c>
-      <c r="N139" t="n">
-        <v>0.2990654205607476</v>
-      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -7709,9 +7310,6 @@
       <c r="M140" t="n">
         <v>0.008733624454148471</v>
       </c>
-      <c r="N140" t="n">
-        <v>0.3387850467289719</v>
-      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -7761,9 +7359,6 @@
       <c r="M141" t="n">
         <v>0.6637554585152838</v>
       </c>
-      <c r="N141" t="n">
-        <v>0.7289719626168224</v>
-      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -7813,9 +7408,6 @@
       <c r="M142" t="n">
         <v>0.7947598253275109</v>
       </c>
-      <c r="N142" t="n">
-        <v>0.1752336448598131</v>
-      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -7865,9 +7457,6 @@
       <c r="M143" t="n">
         <v>0.6899563318777292</v>
       </c>
-      <c r="N143" t="n">
-        <v>0.7757009345794392</v>
-      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -7917,9 +7506,6 @@
       <c r="M144" t="n">
         <v>0.6200873362445415</v>
       </c>
-      <c r="N144" t="n">
-        <v>0.4485981308411214</v>
-      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -7969,7 +7555,6 @@
       <c r="M145" t="n">
         <v>0.4366812227074235</v>
       </c>
-      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -8019,9 +7604,6 @@
       <c r="M146" t="n">
         <v>1</v>
       </c>
-      <c r="N146" t="n">
-        <v>0.03738317757009346</v>
-      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -8071,9 +7653,6 @@
       <c r="M147" t="n">
         <v>0.9213973799126638</v>
       </c>
-      <c r="N147" t="n">
-        <v>0.4135514018691588</v>
-      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -8123,9 +7702,6 @@
       <c r="M148" t="n">
         <v>0.9868995633187773</v>
       </c>
-      <c r="N148" t="n">
-        <v>0.161214953271028</v>
-      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -8175,9 +7751,6 @@
       <c r="M149" t="n">
         <v>0.9694323144104803</v>
       </c>
-      <c r="N149" t="n">
-        <v>0.08177570093457943</v>
-      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -8227,9 +7800,6 @@
       <c r="M150" t="n">
         <v>0.9650655021834065</v>
       </c>
-      <c r="N150" t="n">
-        <v>0.2336448598130841</v>
-      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -8279,9 +7849,6 @@
       <c r="M151" t="n">
         <v>0.7772925764192139</v>
       </c>
-      <c r="N151" t="n">
-        <v>0.6635514018691588</v>
-      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -8331,9 +7898,6 @@
       <c r="M152" t="n">
         <v>0.9956331877729258</v>
       </c>
-      <c r="N152" t="n">
-        <v>0.5537383177570093</v>
-      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -8383,9 +7947,6 @@
       <c r="M153" t="n">
         <v>0.5283842794759825</v>
       </c>
-      <c r="N153" t="n">
-        <v>0.6098130841121494</v>
-      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -8435,9 +7996,6 @@
       <c r="M154" t="n">
         <v>0.9912663755458516</v>
       </c>
-      <c r="N154" t="n">
-        <v>0.8364485981308412</v>
-      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -8487,9 +8045,6 @@
       <c r="M155" t="n">
         <v>0.9344978165938863</v>
       </c>
-      <c r="N155" t="n">
-        <v>0.4976635514018691</v>
-      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -8539,9 +8094,6 @@
       <c r="M156" t="n">
         <v>0.982532751091703</v>
       </c>
-      <c r="N156" t="n">
-        <v>0.8644859813084111</v>
-      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -8591,9 +8143,6 @@
       <c r="M157" t="n">
         <v>0.9781659388646288</v>
       </c>
-      <c r="N157" t="n">
-        <v>0.4649532710280373</v>
-      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -8643,7 +8192,6 @@
       <c r="M158" t="n">
         <v>0.4672489082969432</v>
       </c>
-      <c r="N158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -8693,9 +8241,6 @@
       <c r="M159" t="n">
         <v>0.4541484716157205</v>
       </c>
-      <c r="N159" t="n">
-        <v>0.1448598130841121</v>
-      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -8745,9 +8290,6 @@
       <c r="M160" t="n">
         <v>0.4497816593886463</v>
       </c>
-      <c r="N160" t="n">
-        <v>0.9275700934579438</v>
-      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -8797,9 +8339,6 @@
       <c r="M161" t="n">
         <v>0.4934497816593886</v>
       </c>
-      <c r="N161" t="n">
-        <v>0.0514018691588785</v>
-      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -8849,9 +8388,6 @@
       <c r="M162" t="n">
         <v>0.593886462882096</v>
       </c>
-      <c r="N162" t="n">
-        <v>0.02570093457943925</v>
-      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -8901,9 +8437,6 @@
       <c r="M163" t="n">
         <v>0.6244541484716157</v>
       </c>
-      <c r="N163" t="n">
-        <v>0.280373831775701</v>
-      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -8953,9 +8486,6 @@
       <c r="M164" t="n">
         <v>0.2052401746724891</v>
       </c>
-      <c r="N164" t="n">
-        <v>0.9042056074766354</v>
-      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -9005,9 +8535,6 @@
       <c r="M165" t="n">
         <v>0.296943231441048</v>
       </c>
-      <c r="N165" t="n">
-        <v>0.9509345794392523</v>
-      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -9057,9 +8584,6 @@
       <c r="M166" t="n">
         <v>0.3799126637554585</v>
       </c>
-      <c r="N166" t="n">
-        <v>0.8528037383177569</v>
-      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -9109,9 +8633,6 @@
       <c r="M167" t="n">
         <v>0.2139737991266376</v>
       </c>
-      <c r="N167" t="n">
-        <v>0.9626168224299065</v>
-      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -9161,9 +8682,6 @@
       <c r="M168" t="n">
         <v>0.4235807860262009</v>
       </c>
-      <c r="N168" t="n">
-        <v>0.8925233644859812</v>
-      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -9213,9 +8731,6 @@
       <c r="M169" t="n">
         <v>0.5895196506550218</v>
       </c>
-      <c r="N169" t="n">
-        <v>0.1542056074766355</v>
-      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -9265,9 +8780,6 @@
       <c r="M170" t="n">
         <v>0.8777292576419213</v>
       </c>
-      <c r="N170" t="n">
-        <v>0.3107476635514018</v>
-      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -9317,9 +8829,6 @@
       <c r="M171" t="n">
         <v>0.8908296943231427</v>
       </c>
-      <c r="N171" t="n">
-        <v>0.2616822429906542</v>
-      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -9369,9 +8878,6 @@
       <c r="M172" t="n">
         <v>0.8864628820960698</v>
       </c>
-      <c r="N172" t="n">
-        <v>0.3948598130841121</v>
-      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -9421,9 +8927,6 @@
       <c r="M173" t="n">
         <v>0.7117903930131004</v>
       </c>
-      <c r="N173" t="n">
-        <v>0.6214953271028036</v>
-      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -9473,9 +8976,6 @@
       <c r="M174" t="n">
         <v>0.816593886462882</v>
       </c>
-      <c r="N174" t="n">
-        <v>0.7406542056074765</v>
-      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -9525,9 +9025,6 @@
       <c r="M175" t="n">
         <v>0.8646288209606986</v>
       </c>
-      <c r="N175" t="n">
-        <v>0.5887850467289719</v>
-      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -9577,9 +9074,6 @@
       <c r="M176" t="n">
         <v>0.7205240174672489</v>
       </c>
-      <c r="N176" t="n">
-        <v>0.8271028037383177</v>
-      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -9629,9 +9123,6 @@
       <c r="M177" t="n">
         <v>0.7467248908296943</v>
       </c>
-      <c r="N177" t="n">
-        <v>0.6845794392523363</v>
-      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -9681,9 +9172,6 @@
       <c r="M178" t="n">
         <v>0.8951965065502183</v>
       </c>
-      <c r="N178" t="n">
-        <v>0.4789719626168224</v>
-      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -9733,9 +9221,6 @@
       <c r="M179" t="n">
         <v>0.7729257641921397</v>
       </c>
-      <c r="N179" t="n">
-        <v>0.514018691588785</v>
-      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -9785,9 +9270,6 @@
       <c r="M180" t="n">
         <v>0.8078602620087336</v>
       </c>
-      <c r="N180" t="n">
-        <v>0.5280373831775701</v>
-      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -9837,7 +9319,6 @@
       <c r="M181" t="n">
         <v>0.3275109170305677</v>
       </c>
-      <c r="N181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -9887,9 +9368,6 @@
       <c r="M182" t="n">
         <v>0.611353711790393</v>
       </c>
-      <c r="N182" t="n">
-        <v>0.1331775700934579</v>
-      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -9939,9 +9417,6 @@
       <c r="M183" t="n">
         <v>0.1965065502183406</v>
       </c>
-      <c r="N183" t="n">
-        <v>0.9859813084112148</v>
-      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -9991,9 +9466,6 @@
       <c r="M184" t="n">
         <v>0.2270742358078602</v>
       </c>
-      <c r="N184" t="n">
-        <v>0.08878504672897196</v>
-      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -10043,9 +9515,6 @@
       <c r="M185" t="n">
         <v>0.3886462882096069</v>
       </c>
-      <c r="N185" t="n">
-        <v>0.5677570093457944</v>
-      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -10095,9 +9564,6 @@
       <c r="M186" t="n">
         <v>0.3056768558951965</v>
       </c>
-      <c r="N186" t="n">
-        <v>0.5467289719626168</v>
-      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -10147,9 +9613,6 @@
       <c r="M187" t="n">
         <v>0.1441048034934498</v>
       </c>
-      <c r="N187" t="n">
-        <v>0.2126168224299065</v>
-      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -10199,9 +9662,6 @@
       <c r="M188" t="n">
         <v>0.1790393013100438</v>
       </c>
-      <c r="N188" t="n">
-        <v>0.6518691588785046</v>
-      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -10251,9 +9711,6 @@
       <c r="M189" t="n">
         <v>0.3580786026200873</v>
       </c>
-      <c r="N189" t="n">
-        <v>0.6752336448598131</v>
-      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -10303,9 +9760,6 @@
       <c r="M190" t="n">
         <v>0.4759825327510917</v>
       </c>
-      <c r="N190" t="n">
-        <v>0.6355140186915886</v>
-      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -10355,9 +9809,6 @@
       <c r="M191" t="n">
         <v>0.3231441048034934</v>
       </c>
-      <c r="N191" t="n">
-        <v>0.9415887850467288</v>
-      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -10407,9 +9858,6 @@
       <c r="M192" t="n">
         <v>0.02183406113537118</v>
       </c>
-      <c r="N192" t="n">
-        <v>0.3855140186915887</v>
-      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -10459,9 +9907,6 @@
       <c r="M193" t="n">
         <v>0.1615720524017467</v>
       </c>
-      <c r="N193" t="n">
-        <v>0.4976635514018691</v>
-      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -10511,9 +9956,6 @@
       <c r="M194" t="n">
         <v>0.6419213973799126</v>
       </c>
-      <c r="N194" t="n">
-        <v>0.2476635514018691</v>
-      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -10563,9 +10005,6 @@
       <c r="M195" t="n">
         <v>0.1266375545851528</v>
       </c>
-      <c r="N195" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -10615,9 +10054,6 @@
       <c r="M196" t="n">
         <v>0.3187772925764192</v>
       </c>
-      <c r="N196" t="n">
-        <v>0.2897196261682243</v>
-      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -10667,9 +10103,6 @@
       <c r="M197" t="n">
         <v>0.5807860262008734</v>
       </c>
-      <c r="N197" t="n">
-        <v>0.2757009345794392</v>
-      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -10719,9 +10152,6 @@
       <c r="M198" t="n">
         <v>0.5414847161572052</v>
       </c>
-      <c r="N198" t="n">
-        <v>0.2032710280373832</v>
-      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -10771,9 +10201,6 @@
       <c r="M199" t="n">
         <v>0.2751091703056768</v>
       </c>
-      <c r="N199" t="n">
-        <v>0.3785046728971962</v>
-      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -10823,9 +10250,6 @@
       <c r="M200" t="n">
         <v>0.4017467248908297</v>
       </c>
-      <c r="N200" t="n">
-        <v>0.7850467289719625</v>
-      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -10875,9 +10299,6 @@
       <c r="M201" t="n">
         <v>0.2794759825327511</v>
       </c>
-      <c r="N201" t="n">
-        <v>0.9135514018691588</v>
-      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -10927,9 +10348,6 @@
       <c r="M202" t="n">
         <v>0.2314410480349345</v>
       </c>
-      <c r="N202" t="n">
-        <v>0.8130841121495327</v>
-      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -10979,9 +10397,6 @@
       <c r="M203" t="n">
         <v>0.3013100436681223</v>
       </c>
-      <c r="N203" t="n">
-        <v>0.7593457943925233</v>
-      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -11031,9 +10446,6 @@
       <c r="M204" t="n">
         <v>0.7336244541484724</v>
       </c>
-      <c r="N204" t="n">
-        <v>0.8014018691588785</v>
-      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -11083,9 +10495,6 @@
       <c r="M205" t="n">
         <v>0.834061135371179</v>
       </c>
-      <c r="N205" t="n">
-        <v>0.6028037383177569</v>
-      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -11135,9 +10544,6 @@
       <c r="M206" t="n">
         <v>0.6026200873362445</v>
       </c>
-      <c r="N206" t="n">
-        <v>0.3271028037383177</v>
-      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -11187,9 +10593,6 @@
       <c r="M207" t="n">
         <v>0.3668122270742358</v>
       </c>
-      <c r="N207" t="n">
-        <v>0.6518691588785046</v>
-      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -11239,7 +10642,6 @@
       <c r="M208" t="n">
         <v>0.5152838427947598</v>
       </c>
-      <c r="N208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -11289,9 +10691,6 @@
       <c r="M209" t="n">
         <v>0.9082969432314412</v>
       </c>
-      <c r="N209" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -11341,9 +10740,6 @@
       <c r="M210" t="n">
         <v>0.5545851528384279</v>
       </c>
-      <c r="N210" t="n">
-        <v>0.1191588785046729</v>
-      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -11393,9 +10789,6 @@
       <c r="M211" t="n">
         <v>0.3930131004366812</v>
       </c>
-      <c r="N211" t="n">
-        <v>0.1682242990654206</v>
-      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -11445,9 +10838,6 @@
       <c r="M212" t="n">
         <v>0.6681222707423581</v>
       </c>
-      <c r="N212" t="n">
-        <v>0.3574766355140186</v>
-      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -11497,9 +10887,6 @@
       <c r="M213" t="n">
         <v>0.7074235807860262</v>
       </c>
-      <c r="N213" t="n">
-        <v>0.3481308411214953</v>
-      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -11549,9 +10936,6 @@
       <c r="M214" t="n">
         <v>0.5764192139737991</v>
       </c>
-      <c r="N214" t="n">
-        <v>0.4042056074766355</v>
-      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -11601,9 +10985,6 @@
       <c r="M215" t="n">
         <v>0.2445414847161572</v>
       </c>
-      <c r="N215" t="n">
-        <v>0.2990654205607476</v>
-      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -11653,9 +11034,6 @@
       <c r="M216" t="n">
         <v>0.3144104803493451</v>
       </c>
-      <c r="N216" t="n">
-        <v>0.7219626168224298</v>
-      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -11705,9 +11083,6 @@
       <c r="M217" t="n">
         <v>0.4104803493449781</v>
       </c>
-      <c r="N217" t="n">
-        <v>0.7757009345794392</v>
-      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -11757,9 +11132,6 @@
       <c r="M218" t="n">
         <v>0.2532751091703057</v>
       </c>
-      <c r="N218" t="n">
-        <v>0.4485981308411214</v>
-      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -11809,7 +11181,6 @@
       <c r="M219" t="n">
         <v>0.9388646288209607</v>
       </c>
-      <c r="N219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -11859,9 +11230,6 @@
       <c r="M220" t="n">
         <v>0.8471615720524017</v>
       </c>
-      <c r="N220" t="n">
-        <v>0.03738317757009346</v>
-      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -11911,9 +11279,6 @@
       <c r="M221" t="n">
         <v>0.7860262008733624</v>
       </c>
-      <c r="N221" t="n">
-        <v>0.4135514018691588</v>
-      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -11963,9 +11328,6 @@
       <c r="M222" t="n">
         <v>0.7991266375545851</v>
       </c>
-      <c r="N222" t="n">
-        <v>0.161214953271028</v>
-      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -12015,9 +11377,6 @@
       <c r="M223" t="n">
         <v>0.7816593886462883</v>
       </c>
-      <c r="N223" t="n">
-        <v>0.1845794392523364</v>
-      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -12067,9 +11426,6 @@
       <c r="M224" t="n">
         <v>0.3318777292576419</v>
       </c>
-      <c r="N224" t="n">
-        <v>0.2336448598130841</v>
-      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -12119,9 +11475,6 @@
       <c r="M225" t="n">
         <v>0.9519650655021834</v>
       </c>
-      <c r="N225" t="n">
-        <v>0.07476635514018691</v>
-      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -12171,9 +11524,6 @@
       <c r="M226" t="n">
         <v>0.9432314410480349</v>
       </c>
-      <c r="N226" t="n">
-        <v>0.5537383177570093</v>
-      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -12223,9 +11573,6 @@
       <c r="M227" t="n">
         <v>0.6768558951965074</v>
       </c>
-      <c r="N227" t="n">
-        <v>0.6098130841121494</v>
-      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -12275,9 +11622,6 @@
       <c r="M228" t="n">
         <v>0.6157205240174672</v>
       </c>
-      <c r="N228" t="n">
-        <v>0.8364485981308412</v>
-      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -12327,9 +11671,6 @@
       <c r="M229" t="n">
         <v>0.9475982532751094</v>
       </c>
-      <c r="N229" t="n">
-        <v>0.4976635514018691</v>
-      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -12379,9 +11720,6 @@
       <c r="M230" t="n">
         <v>0.2925764192139738</v>
       </c>
-      <c r="N230" t="n">
-        <v>0.8644859813084111</v>
-      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -12430,9 +11768,6 @@
       </c>
       <c r="M231" t="n">
         <v>0.8253275109170305</v>
-      </c>
-      <c r="N231" t="n">
-        <v>0.4649532710280373</v>
       </c>
     </row>
   </sheetData>
